--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="121">
   <si>
     <t>Doi</t>
   </si>
@@ -506,6 +506,206 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,  Christopher J%Armitage%NULL%2,  Christopher J%Armitage%NULL%0,  Tova%Tampe%NULL%1,  Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The public health response to Zika outbreak has mostly focused on epidemiological surveillance, vector control, and individual level preventative measures.
+ This qualitative study employs a social-ecological framework to examine how macro (historical, legislative, political, socio-economic factors), meso (sources of information, social support, social mobilization) and micro level factors (individual actions, behavioral changes) interacted to influence the response and behavior of women with respect to Zika in different contexts.
+Methods
+id="Par2"&gt;A qualitative study was carried out.
+ Women were recruited through the snowball sampling technique from various locations in Brazil, Puerto Rico, and the United States.
+ They were of different nationalities and ethnicities.
+ Data were collected through semi-structured interviews.
+ The data transcripts were analyzed using thematic analysis.
+Results
+id="Par3"&gt;Women in this study deemed the information provided as insufficient, which led them to actively reach out and access a variety of media sources.
+ Social networks played a vital role in sharing information but also resulted in the spread of hoaxes or rumors.
+ Participants in our research perceived socio-economic inequities but focused on how to remedy their microenvironments.
+ They did not engage in major social activities.
+ Lack of trust in governments placed women in vulnerable situations by preventing them to follow the guidance of health authorities.
+ These impacts were also a result of the response tactics of health and government administrations in their failed attempts to ensure the well-being of their countries’ populations.
+Conclusions
+id="Par4"&gt;Our findings call for public health interventions that go beyond individual level behavioral change campaigns, to more comprehensively address the broader meso and macro level factors that influence women’ willingness and possibility to protect themselves.
+</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,   Maria%Roura%NULL%1,   Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Zika virus (ZIKV) infection during pregnancy has severe consequences on the new-born.
+ The World Health Organization declared the Zika outbreak to be a Public Health Emergency of International Concern (PHEIC) in 2016. Health facilities in the regions most affected by Zika lacked the capacity to respond to the increased demand for contraception.
+ The objectives were to explore healthcare users’ perceptions regarding contraception, Zika prevention during pregnancy and post-abortion care (PAC) services in the context of a Zika outbreak in Tegucigalpa, Honduras, and to follow these services over time.
+Methods
+id="Par2"&gt;This study was part of a broader implementation research study.
+ We used qualitative research consistent with grounded theory approach.
+ Semi-structured interviews and focus groups were performed with women and their partners who used contraceptive services or received PAC services.
+ Data were collected in two stages from December 2017 to July 2018. Themes explored included contraception, Zika and PAC services.
+Results
+id="Par3"&gt;Participants had positive attitude towards the use of contraceptive methods and demanded more information on safety, efficacy and on side effects.
+ Health care services were inconsistent in the provision of information on Zika and contraception services.
+ ZIKV vector transmission was known but fewer participants were aware of risk of sexual transmission of Zika.
+ Barriers to access healthcare services included contraceptive and PAC services included distance to healthcare facilities, disorganized admission process, long waiting times and out-of-pocket expenditure to purchase medicines.
+ Furthermore, poor quality, mistreatment and abuse of women seeking PAC was prevalent.
+ Some positive changes were noted over time, such as improvements in infrastructure including improved privacy and cleanliness, removal of fees, requisite to bring clean water to hospital.
+Conclusions
+id="Par4"&gt;Our results highlight the challenges and areas for improvement in policy and practice related to contraceptive services and PAC in the context of ZIKV infection.
+ Public policies to prevent epidemics should focus more on providing proper sanitation; removing barriers to access and use of effective contraception as human rights priority.
+ Zika epidemic has highlighted weaknesses in health systems that obstruct access to and use of sexual and reproductive health services.
+</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,   Edna%Maradiaga%edjamar3006@yahoo.com%1,   Javier%Roberti%jroberti@iecs.org.ar%1,   Maricela%Casco-Aguilar%marykasco@yahoo.com%1,   Alison F.%Ortez%alison_fabiola@yahoo.es%1,   Juan C.%Avila-Flores%javilaflores3@gmail.com%1,   Gloria%González%marilyntoin@yahoo.com%1,   Carolina%Bustillo%mcbu1502@yahoo.com%0,   Alejandra%Calderón%lilianalecalderon@gmail.com%1,   Harry%Bock%hbockme@hotmail.com%1,   María L.%Cafferata%NULL%1,   Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,   Jackeline%Alger%jackelinealger@gmail.com%1,   Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The public health response to Zika outbreak has mostly focused on epidemiological surveillance, vector control, and individual level preventative measures.
+ This qualitative study employs a social-ecological framework to examine how macro (historical, legislative, political, socio-economic factors), meso (sources of information, social support, social mobilization) and micro level factors (individual actions, behavioral changes) interacted to influence the response and behavior of women with respect to Zika in different contexts.
+Methods
+A qualitative study was carried out.
+ Women were recruited through the snowball sampling technique from various locations in Brazil, Puerto Rico, and the United States.
+ They were of different nationalities and ethnicities.
+ Data were collected through semi-structured interviews.
+ The data transcripts were analyzed using thematic analysis.
+Results
+id="Par3"&gt;Women in this study deemed the information provided as insufficient, which led them to actively reach out and access a variety of media sources.
+ Social networks played a vital role in sharing information but also resulted in the spread of hoaxes or rumors.
+ Participants in our research perceived socio-economic inequities but focused on how to remedy their microenvironments.
+ They did not engage in major social activities.
+ Lack of trust in governments placed women in vulnerable situations by preventing them to follow the guidance of health authorities.
+ These impacts were also a result of the response tactics of health and government administrations in their failed attempts to ensure the well-being of their countries’ populations.
+Conclusions
+id="Par4"&gt;Our findings call for public health interventions that go beyond individual level behavioral change campaigns, to more comprehensively address the broader meso and macro level factors that influence women’ willingness and possibility to protect themselves.
+</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,    Maria%Roura%NULL%1,    Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Zika virus (ZIKV) infection during pregnancy has severe consequences on the new-born.
+ The World Health Organization declared the Zika outbreak to be a Public Health Emergency of International Concern (PHEIC) in 2016. Health facilities in the regions most affected by Zika lacked the capacity to respond to the increased demand for contraception.
+ The objectives were to explore healthcare users’ perceptions regarding contraception, Zika prevention during pregnancy and post-abortion care (PAC) services in the context of a Zika outbreak in Tegucigalpa, Honduras, and to follow these services over time.
+Methods
+This study was part of a broader implementation research study.
+ We used qualitative research consistent with grounded theory approach.
+ Semi-structured interviews and focus groups were performed with women and their partners who used contraceptive services or received PAC services.
+ Data were collected in two stages from December 2017 to July 2018. Themes explored included contraception, Zika and PAC services.
+Results
+id="Par3"&gt;Participants had positive attitude towards the use of contraceptive methods and demanded more information on safety, efficacy and on side effects.
+ Health care services were inconsistent in the provision of information on Zika and contraception services.
+ ZIKV vector transmission was known but fewer participants were aware of risk of sexual transmission of Zika.
+ Barriers to access healthcare services included contraceptive and PAC services included distance to healthcare facilities, disorganized admission process, long waiting times and out-of-pocket expenditure to purchase medicines.
+ Furthermore, poor quality, mistreatment and abuse of women seeking PAC was prevalent.
+ Some positive changes were noted over time, such as improvements in infrastructure including improved privacy and cleanliness, removal of fees, requisite to bring clean water to hospital.
+Conclusions
+id="Par4"&gt;Our results highlight the challenges and areas for improvement in policy and practice related to contraceptive services and PAC in the context of ZIKV infection.
+ Public policies to prevent epidemics should focus more on providing proper sanitation; removing barriers to access and use of effective contraception as human rights priority.
+ Zika epidemic has highlighted weaknesses in health systems that obstruct access to and use of sexual and reproductive health services.
+</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,    Edna%Maradiaga%edjamar3006@yahoo.com%1,    Javier%Roberti%jroberti@iecs.org.ar%1,    Maricela%Casco-Aguilar%marykasco@yahoo.com%1,    Alison F.%Ortez%alison_fabiola@yahoo.es%1,    Juan C.%Avila-Flores%javilaflores3@gmail.com%1,    Gloria%González%marilyntoin@yahoo.com%1,    Carolina%Bustillo%mcbu1502@yahoo.com%1,    Alejandra%Calderón%lilianalecalderon@gmail.com%1,    Harry%Bock%hbockme@hotmail.com%1,    María L.%Cafferata%NULL%1,    Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,    Jackeline%Alger%jackelinealger@gmail.com%1,    Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The public health response to Zika outbreak has mostly focused on epidemiological surveillance, vector control, and individual level preventative measures.
+ This qualitative study employs a social-ecological framework to examine how macro (historical, legislative, political, socio-economic factors), meso (sources of information, social support, social mobilization) and micro level factors (individual actions, behavioral changes) interacted to influence the response and behavior of women with respect to Zika in different contexts.
+Methods
+A qualitative study was carried out.
+ Women were recruited through the snowball sampling technique from various locations in Brazil, Puerto Rico, and the United States.
+ They were of different nationalities and ethnicities.
+ Data were collected through semi-structured interviews.
+ The data transcripts were analyzed using thematic analysis.
+Results
+Women in this study deemed the information provided as insufficient, which led them to actively reach out and access a variety of media sources.
+ Social networks played a vital role in sharing information but also resulted in the spread of hoaxes or rumors.
+ Participants in our research perceived socio-economic inequities but focused on how to remedy their microenvironments.
+ They did not engage in major social activities.
+ Lack of trust in governments placed women in vulnerable situations by preventing them to follow the guidance of health authorities.
+ These impacts were also a result of the response tactics of health and government administrations in their failed attempts to ensure the well-being of their countries’ populations.
+Conclusions
+id="Par4"&gt;Our findings call for public health interventions that go beyond individual level behavioral change campaigns, to more comprehensively address the broader meso and macro level factors that influence women’ willingness and possibility to protect themselves.
+</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,     Maria%Roura%NULL%1,     Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Zika virus (ZIKV) infection during pregnancy has severe consequences on the new-born.
+ The World Health Organization declared the Zika outbreak to be a Public Health Emergency of International Concern (PHEIC) in 2016. Health facilities in the regions most affected by Zika lacked the capacity to respond to the increased demand for contraception.
+ The objectives were to explore healthcare users’ perceptions regarding contraception, Zika prevention during pregnancy and post-abortion care (PAC) services in the context of a Zika outbreak in Tegucigalpa, Honduras, and to follow these services over time.
+Methods
+This study was part of a broader implementation research study.
+ We used qualitative research consistent with grounded theory approach.
+ Semi-structured interviews and focus groups were performed with women and their partners who used contraceptive services or received PAC services.
+ Data were collected in two stages from December 2017 to July 2018. Themes explored included contraception, Zika and PAC services.
+Results
+Participants had positive attitude towards the use of contraceptive methods and demanded more information on safety, efficacy and on side effects.
+ Health care services were inconsistent in the provision of information on Zika and contraception services.
+ ZIKV vector transmission was known but fewer participants were aware of risk of sexual transmission of Zika.
+ Barriers to access healthcare services included contraceptive and PAC services included distance to healthcare facilities, disorganized admission process, long waiting times and out-of-pocket expenditure to purchase medicines.
+ Furthermore, poor quality, mistreatment and abuse of women seeking PAC was prevalent.
+ Some positive changes were noted over time, such as improvements in infrastructure including improved privacy and cleanliness, removal of fees, requisite to bring clean water to hospital.
+Conclusions
+id="Par4"&gt;Our results highlight the challenges and areas for improvement in policy and practice related to contraceptive services and PAC in the context of ZIKV infection.
+ Public policies to prevent epidemics should focus more on providing proper sanitation; removing barriers to access and use of effective contraception as human rights priority.
+ Zika epidemic has highlighted weaknesses in health systems that obstruct access to and use of sexual and reproductive health services.
+</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,     Edna%Maradiaga%edjamar3006@yahoo.com%1,     Javier%Roberti%jroberti@iecs.org.ar%1,     Maricela%Casco-Aguilar%marykasco@yahoo.com%1,     Alison F.%Ortez%alison_fabiola@yahoo.es%1,     Juan C.%Avila-Flores%javilaflores3@gmail.com%1,     Gloria%González%marilyntoin@yahoo.com%1,     Carolina%Bustillo%mcbu1502@yahoo.com%1,     Alejandra%Calderón%lilianalecalderon@gmail.com%1,     Harry%Bock%hbockme@hotmail.com%1,     María L.%Cafferata%NULL%1,     Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,     Jackeline%Alger%jackelinealger@gmail.com%1,     Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The public health response to Zika outbreak has mostly focused on epidemiological surveillance, vector control, and individual level preventative measures.
+ This qualitative study employs a social-ecological framework to examine how macro (historical, legislative, political, socio-economic factors), meso (sources of information, social support, social mobilization) and micro level factors (individual actions, behavioral changes) interacted to influence the response and behavior of women with respect to Zika in different contexts.
+Methods
+A qualitative study was carried out.
+ Women were recruited through the snowball sampling technique from various locations in Brazil, Puerto Rico, and the United States.
+ They were of different nationalities and ethnicities.
+ Data were collected through semi-structured interviews.
+ The data transcripts were analyzed using thematic analysis.
+Results
+Women in this study deemed the information provided as insufficient, which led them to actively reach out and access a variety of media sources.
+ Social networks played a vital role in sharing information but also resulted in the spread of hoaxes or rumors.
+ Participants in our research perceived socio-economic inequities but focused on how to remedy their microenvironments.
+ They did not engage in major social activities.
+ Lack of trust in governments placed women in vulnerable situations by preventing them to follow the guidance of health authorities.
+ These impacts were also a result of the response tactics of health and government administrations in their failed attempts to ensure the well-being of their countries’ populations.
+Conclusions
+Our findings call for public health interventions that go beyond individual level behavioral change campaigns, to more comprehensively address the broader meso and macro level factors that influence women’ willingness and possibility to protect themselves.
+</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,      Maria%Roura%NULL%1,      Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Zika virus (ZIKV) infection during pregnancy has severe consequences on the new-born.
+ The World Health Organization declared the Zika outbreak to be a Public Health Emergency of International Concern (PHEIC) in 2016. Health facilities in the regions most affected by Zika lacked the capacity to respond to the increased demand for contraception.
+ The objectives were to explore healthcare users’ perceptions regarding contraception, Zika prevention during pregnancy and post-abortion care (PAC) services in the context of a Zika outbreak in Tegucigalpa, Honduras, and to follow these services over time.
+Methods
+This study was part of a broader implementation research study.
+ We used qualitative research consistent with grounded theory approach.
+ Semi-structured interviews and focus groups were performed with women and their partners who used contraceptive services or received PAC services.
+ Data were collected in two stages from December 2017 to July 2018. Themes explored included contraception, Zika and PAC services.
+Results
+Participants had positive attitude towards the use of contraceptive methods and demanded more information on safety, efficacy and on side effects.
+ Health care services were inconsistent in the provision of information on Zika and contraception services.
+ ZIKV vector transmission was known but fewer participants were aware of risk of sexual transmission of Zika.
+ Barriers to access healthcare services included contraceptive and PAC services included distance to healthcare facilities, disorganized admission process, long waiting times and out-of-pocket expenditure to purchase medicines.
+ Furthermore, poor quality, mistreatment and abuse of women seeking PAC was prevalent.
+ Some positive changes were noted over time, such as improvements in infrastructure including improved privacy and cleanliness, removal of fees, requisite to bring clean water to hospital.
+Conclusions
+Our results highlight the challenges and areas for improvement in policy and practice related to contraceptive services and PAC in the context of ZIKV infection.
+ Public policies to prevent epidemics should focus more on providing proper sanitation; removing barriers to access and use of effective contraception as human rights priority.
+ Zika epidemic has highlighted weaknesses in health systems that obstruct access to and use of sexual and reproductive health services.
+</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,      Edna%Maradiaga%edjamar3006@yahoo.com%1,      Javier%Roberti%jroberti@iecs.org.ar%1,      Maricela%Casco-Aguilar%marykasco@yahoo.com%1,      Alison F.%Ortez%alison_fabiola@yahoo.es%1,      Juan C.%Avila-Flores%javilaflores3@gmail.com%1,      Gloria%González%marilyntoin@yahoo.com%1,      Carolina%Bustillo%mcbu1502@yahoo.com%1,      Alejandra%Calderón%lilianalecalderon@gmail.com%1,      Harry%Bock%hbockme@hotmail.com%1,      María L.%Cafferata%NULL%1,      Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,      Jackeline%Alger%jackelinealger@gmail.com%1,      Moazzam%Ali%alimoa@who.int%1]</t>
   </si>
 </sst>
 </file>
@@ -860,10 +1060,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -886,10 +1086,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>

--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="105">
   <si>
     <t>Doi</t>
   </si>
@@ -506,206 +506,6 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,  Christopher J%Armitage%NULL%2,  Christopher J%Armitage%NULL%0,  Tova%Tampe%NULL%1,  Kimberly%Dienes%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The public health response to Zika outbreak has mostly focused on epidemiological surveillance, vector control, and individual level preventative measures.
- This qualitative study employs a social-ecological framework to examine how macro (historical, legislative, political, socio-economic factors), meso (sources of information, social support, social mobilization) and micro level factors (individual actions, behavioral changes) interacted to influence the response and behavior of women with respect to Zika in different contexts.
-Methods
-id="Par2"&gt;A qualitative study was carried out.
- Women were recruited through the snowball sampling technique from various locations in Brazil, Puerto Rico, and the United States.
- They were of different nationalities and ethnicities.
- Data were collected through semi-structured interviews.
- The data transcripts were analyzed using thematic analysis.
-Results
-id="Par3"&gt;Women in this study deemed the information provided as insufficient, which led them to actively reach out and access a variety of media sources.
- Social networks played a vital role in sharing information but also resulted in the spread of hoaxes or rumors.
- Participants in our research perceived socio-economic inequities but focused on how to remedy their microenvironments.
- They did not engage in major social activities.
- Lack of trust in governments placed women in vulnerable situations by preventing them to follow the guidance of health authorities.
- These impacts were also a result of the response tactics of health and government administrations in their failed attempts to ensure the well-being of their countries’ populations.
-Conclusions
-id="Par4"&gt;Our findings call for public health interventions that go beyond individual level behavioral change campaigns, to more comprehensively address the broader meso and macro level factors that influence women’ willingness and possibility to protect themselves.
-</t>
-  </si>
-  <si>
-    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,   Maria%Roura%NULL%1,   Eduardo%Siqueira%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Zika virus (ZIKV) infection during pregnancy has severe consequences on the new-born.
- The World Health Organization declared the Zika outbreak to be a Public Health Emergency of International Concern (PHEIC) in 2016. Health facilities in the regions most affected by Zika lacked the capacity to respond to the increased demand for contraception.
- The objectives were to explore healthcare users’ perceptions regarding contraception, Zika prevention during pregnancy and post-abortion care (PAC) services in the context of a Zika outbreak in Tegucigalpa, Honduras, and to follow these services over time.
-Methods
-id="Par2"&gt;This study was part of a broader implementation research study.
- We used qualitative research consistent with grounded theory approach.
- Semi-structured interviews and focus groups were performed with women and their partners who used contraceptive services or received PAC services.
- Data were collected in two stages from December 2017 to July 2018. Themes explored included contraception, Zika and PAC services.
-Results
-id="Par3"&gt;Participants had positive attitude towards the use of contraceptive methods and demanded more information on safety, efficacy and on side effects.
- Health care services were inconsistent in the provision of information on Zika and contraception services.
- ZIKV vector transmission was known but fewer participants were aware of risk of sexual transmission of Zika.
- Barriers to access healthcare services included contraceptive and PAC services included distance to healthcare facilities, disorganized admission process, long waiting times and out-of-pocket expenditure to purchase medicines.
- Furthermore, poor quality, mistreatment and abuse of women seeking PAC was prevalent.
- Some positive changes were noted over time, such as improvements in infrastructure including improved privacy and cleanliness, removal of fees, requisite to bring clean water to hospital.
-Conclusions
-id="Par4"&gt;Our results highlight the challenges and areas for improvement in policy and practice related to contraceptive services and PAC in the context of ZIKV infection.
- Public policies to prevent epidemics should focus more on providing proper sanitation; removing barriers to access and use of effective contraception as human rights priority.
- Zika epidemic has highlighted weaknesses in health systems that obstruct access to and use of sexual and reproductive health services.
-</t>
-  </si>
-  <si>
-    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,   Edna%Maradiaga%edjamar3006@yahoo.com%1,   Javier%Roberti%jroberti@iecs.org.ar%1,   Maricela%Casco-Aguilar%marykasco@yahoo.com%1,   Alison F.%Ortez%alison_fabiola@yahoo.es%1,   Juan C.%Avila-Flores%javilaflores3@gmail.com%1,   Gloria%González%marilyntoin@yahoo.com%1,   Carolina%Bustillo%mcbu1502@yahoo.com%0,   Alejandra%Calderón%lilianalecalderon@gmail.com%1,   Harry%Bock%hbockme@hotmail.com%1,   María L.%Cafferata%NULL%1,   Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,   Jackeline%Alger%jackelinealger@gmail.com%1,   Moazzam%Ali%alimoa@who.int%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The public health response to Zika outbreak has mostly focused on epidemiological surveillance, vector control, and individual level preventative measures.
- This qualitative study employs a social-ecological framework to examine how macro (historical, legislative, political, socio-economic factors), meso (sources of information, social support, social mobilization) and micro level factors (individual actions, behavioral changes) interacted to influence the response and behavior of women with respect to Zika in different contexts.
-Methods
-A qualitative study was carried out.
- Women were recruited through the snowball sampling technique from various locations in Brazil, Puerto Rico, and the United States.
- They were of different nationalities and ethnicities.
- Data were collected through semi-structured interviews.
- The data transcripts were analyzed using thematic analysis.
-Results
-id="Par3"&gt;Women in this study deemed the information provided as insufficient, which led them to actively reach out and access a variety of media sources.
- Social networks played a vital role in sharing information but also resulted in the spread of hoaxes or rumors.
- Participants in our research perceived socio-economic inequities but focused on how to remedy their microenvironments.
- They did not engage in major social activities.
- Lack of trust in governments placed women in vulnerable situations by preventing them to follow the guidance of health authorities.
- These impacts were also a result of the response tactics of health and government administrations in their failed attempts to ensure the well-being of their countries’ populations.
-Conclusions
-id="Par4"&gt;Our findings call for public health interventions that go beyond individual level behavioral change campaigns, to more comprehensively address the broader meso and macro level factors that influence women’ willingness and possibility to protect themselves.
-</t>
-  </si>
-  <si>
-    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,    Maria%Roura%NULL%1,    Eduardo%Siqueira%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Zika virus (ZIKV) infection during pregnancy has severe consequences on the new-born.
- The World Health Organization declared the Zika outbreak to be a Public Health Emergency of International Concern (PHEIC) in 2016. Health facilities in the regions most affected by Zika lacked the capacity to respond to the increased demand for contraception.
- The objectives were to explore healthcare users’ perceptions regarding contraception, Zika prevention during pregnancy and post-abortion care (PAC) services in the context of a Zika outbreak in Tegucigalpa, Honduras, and to follow these services over time.
-Methods
-This study was part of a broader implementation research study.
- We used qualitative research consistent with grounded theory approach.
- Semi-structured interviews and focus groups were performed with women and their partners who used contraceptive services or received PAC services.
- Data were collected in two stages from December 2017 to July 2018. Themes explored included contraception, Zika and PAC services.
-Results
-id="Par3"&gt;Participants had positive attitude towards the use of contraceptive methods and demanded more information on safety, efficacy and on side effects.
- Health care services were inconsistent in the provision of information on Zika and contraception services.
- ZIKV vector transmission was known but fewer participants were aware of risk of sexual transmission of Zika.
- Barriers to access healthcare services included contraceptive and PAC services included distance to healthcare facilities, disorganized admission process, long waiting times and out-of-pocket expenditure to purchase medicines.
- Furthermore, poor quality, mistreatment and abuse of women seeking PAC was prevalent.
- Some positive changes were noted over time, such as improvements in infrastructure including improved privacy and cleanliness, removal of fees, requisite to bring clean water to hospital.
-Conclusions
-id="Par4"&gt;Our results highlight the challenges and areas for improvement in policy and practice related to contraceptive services and PAC in the context of ZIKV infection.
- Public policies to prevent epidemics should focus more on providing proper sanitation; removing barriers to access and use of effective contraception as human rights priority.
- Zika epidemic has highlighted weaknesses in health systems that obstruct access to and use of sexual and reproductive health services.
-</t>
-  </si>
-  <si>
-    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,    Edna%Maradiaga%edjamar3006@yahoo.com%1,    Javier%Roberti%jroberti@iecs.org.ar%1,    Maricela%Casco-Aguilar%marykasco@yahoo.com%1,    Alison F.%Ortez%alison_fabiola@yahoo.es%1,    Juan C.%Avila-Flores%javilaflores3@gmail.com%1,    Gloria%González%marilyntoin@yahoo.com%1,    Carolina%Bustillo%mcbu1502@yahoo.com%1,    Alejandra%Calderón%lilianalecalderon@gmail.com%1,    Harry%Bock%hbockme@hotmail.com%1,    María L.%Cafferata%NULL%1,    Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,    Jackeline%Alger%jackelinealger@gmail.com%1,    Moazzam%Ali%alimoa@who.int%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The public health response to Zika outbreak has mostly focused on epidemiological surveillance, vector control, and individual level preventative measures.
- This qualitative study employs a social-ecological framework to examine how macro (historical, legislative, political, socio-economic factors), meso (sources of information, social support, social mobilization) and micro level factors (individual actions, behavioral changes) interacted to influence the response and behavior of women with respect to Zika in different contexts.
-Methods
-A qualitative study was carried out.
- Women were recruited through the snowball sampling technique from various locations in Brazil, Puerto Rico, and the United States.
- They were of different nationalities and ethnicities.
- Data were collected through semi-structured interviews.
- The data transcripts were analyzed using thematic analysis.
-Results
-Women in this study deemed the information provided as insufficient, which led them to actively reach out and access a variety of media sources.
- Social networks played a vital role in sharing information but also resulted in the spread of hoaxes or rumors.
- Participants in our research perceived socio-economic inequities but focused on how to remedy their microenvironments.
- They did not engage in major social activities.
- Lack of trust in governments placed women in vulnerable situations by preventing them to follow the guidance of health authorities.
- These impacts were also a result of the response tactics of health and government administrations in their failed attempts to ensure the well-being of their countries’ populations.
-Conclusions
-id="Par4"&gt;Our findings call for public health interventions that go beyond individual level behavioral change campaigns, to more comprehensively address the broader meso and macro level factors that influence women’ willingness and possibility to protect themselves.
-</t>
-  </si>
-  <si>
-    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,     Maria%Roura%NULL%1,     Eduardo%Siqueira%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Zika virus (ZIKV) infection during pregnancy has severe consequences on the new-born.
- The World Health Organization declared the Zika outbreak to be a Public Health Emergency of International Concern (PHEIC) in 2016. Health facilities in the regions most affected by Zika lacked the capacity to respond to the increased demand for contraception.
- The objectives were to explore healthcare users’ perceptions regarding contraception, Zika prevention during pregnancy and post-abortion care (PAC) services in the context of a Zika outbreak in Tegucigalpa, Honduras, and to follow these services over time.
-Methods
-This study was part of a broader implementation research study.
- We used qualitative research consistent with grounded theory approach.
- Semi-structured interviews and focus groups were performed with women and their partners who used contraceptive services or received PAC services.
- Data were collected in two stages from December 2017 to July 2018. Themes explored included contraception, Zika and PAC services.
-Results
-Participants had positive attitude towards the use of contraceptive methods and demanded more information on safety, efficacy and on side effects.
- Health care services were inconsistent in the provision of information on Zika and contraception services.
- ZIKV vector transmission was known but fewer participants were aware of risk of sexual transmission of Zika.
- Barriers to access healthcare services included contraceptive and PAC services included distance to healthcare facilities, disorganized admission process, long waiting times and out-of-pocket expenditure to purchase medicines.
- Furthermore, poor quality, mistreatment and abuse of women seeking PAC was prevalent.
- Some positive changes were noted over time, such as improvements in infrastructure including improved privacy and cleanliness, removal of fees, requisite to bring clean water to hospital.
-Conclusions
-id="Par4"&gt;Our results highlight the challenges and areas for improvement in policy and practice related to contraceptive services and PAC in the context of ZIKV infection.
- Public policies to prevent epidemics should focus more on providing proper sanitation; removing barriers to access and use of effective contraception as human rights priority.
- Zika epidemic has highlighted weaknesses in health systems that obstruct access to and use of sexual and reproductive health services.
-</t>
-  </si>
-  <si>
-    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,     Edna%Maradiaga%edjamar3006@yahoo.com%1,     Javier%Roberti%jroberti@iecs.org.ar%1,     Maricela%Casco-Aguilar%marykasco@yahoo.com%1,     Alison F.%Ortez%alison_fabiola@yahoo.es%1,     Juan C.%Avila-Flores%javilaflores3@gmail.com%1,     Gloria%González%marilyntoin@yahoo.com%1,     Carolina%Bustillo%mcbu1502@yahoo.com%1,     Alejandra%Calderón%lilianalecalderon@gmail.com%1,     Harry%Bock%hbockme@hotmail.com%1,     María L.%Cafferata%NULL%1,     Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,     Jackeline%Alger%jackelinealger@gmail.com%1,     Moazzam%Ali%alimoa@who.int%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-The public health response to Zika outbreak has mostly focused on epidemiological surveillance, vector control, and individual level preventative measures.
- This qualitative study employs a social-ecological framework to examine how macro (historical, legislative, political, socio-economic factors), meso (sources of information, social support, social mobilization) and micro level factors (individual actions, behavioral changes) interacted to influence the response and behavior of women with respect to Zika in different contexts.
-Methods
-A qualitative study was carried out.
- Women were recruited through the snowball sampling technique from various locations in Brazil, Puerto Rico, and the United States.
- They were of different nationalities and ethnicities.
- Data were collected through semi-structured interviews.
- The data transcripts were analyzed using thematic analysis.
-Results
-Women in this study deemed the information provided as insufficient, which led them to actively reach out and access a variety of media sources.
- Social networks played a vital role in sharing information but also resulted in the spread of hoaxes or rumors.
- Participants in our research perceived socio-economic inequities but focused on how to remedy their microenvironments.
- They did not engage in major social activities.
- Lack of trust in governments placed women in vulnerable situations by preventing them to follow the guidance of health authorities.
- These impacts were also a result of the response tactics of health and government administrations in their failed attempts to ensure the well-being of their countries’ populations.
-Conclusions
-Our findings call for public health interventions that go beyond individual level behavioral change campaigns, to more comprehensively address the broader meso and macro level factors that influence women’ willingness and possibility to protect themselves.
-</t>
-  </si>
-  <si>
-    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,      Maria%Roura%NULL%1,      Eduardo%Siqueira%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Zika virus (ZIKV) infection during pregnancy has severe consequences on the new-born.
- The World Health Organization declared the Zika outbreak to be a Public Health Emergency of International Concern (PHEIC) in 2016. Health facilities in the regions most affected by Zika lacked the capacity to respond to the increased demand for contraception.
- The objectives were to explore healthcare users’ perceptions regarding contraception, Zika prevention during pregnancy and post-abortion care (PAC) services in the context of a Zika outbreak in Tegucigalpa, Honduras, and to follow these services over time.
-Methods
-This study was part of a broader implementation research study.
- We used qualitative research consistent with grounded theory approach.
- Semi-structured interviews and focus groups were performed with women and their partners who used contraceptive services or received PAC services.
- Data were collected in two stages from December 2017 to July 2018. Themes explored included contraception, Zika and PAC services.
-Results
-Participants had positive attitude towards the use of contraceptive methods and demanded more information on safety, efficacy and on side effects.
- Health care services were inconsistent in the provision of information on Zika and contraception services.
- ZIKV vector transmission was known but fewer participants were aware of risk of sexual transmission of Zika.
- Barriers to access healthcare services included contraceptive and PAC services included distance to healthcare facilities, disorganized admission process, long waiting times and out-of-pocket expenditure to purchase medicines.
- Furthermore, poor quality, mistreatment and abuse of women seeking PAC was prevalent.
- Some positive changes were noted over time, such as improvements in infrastructure including improved privacy and cleanliness, removal of fees, requisite to bring clean water to hospital.
-Conclusions
-Our results highlight the challenges and areas for improvement in policy and practice related to contraceptive services and PAC in the context of ZIKV infection.
- Public policies to prevent epidemics should focus more on providing proper sanitation; removing barriers to access and use of effective contraception as human rights priority.
- Zika epidemic has highlighted weaknesses in health systems that obstruct access to and use of sexual and reproductive health services.
-</t>
-  </si>
-  <si>
-    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,      Edna%Maradiaga%edjamar3006@yahoo.com%1,      Javier%Roberti%jroberti@iecs.org.ar%1,      Maricela%Casco-Aguilar%marykasco@yahoo.com%1,      Alison F.%Ortez%alison_fabiola@yahoo.es%1,      Juan C.%Avila-Flores%javilaflores3@gmail.com%1,      Gloria%González%marilyntoin@yahoo.com%1,      Carolina%Bustillo%mcbu1502@yahoo.com%1,      Alejandra%Calderón%lilianalecalderon@gmail.com%1,      Harry%Bock%hbockme@hotmail.com%1,      María L.%Cafferata%NULL%1,      Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,      Jackeline%Alger%jackelinealger@gmail.com%1,      Moazzam%Ali%alimoa@who.int%1]</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +860,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -1086,10 +886,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>

--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="124">
   <si>
     <t>Doi</t>
   </si>
@@ -506,6 +506,63 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,  Christopher J%Armitage%NULL%2,  Christopher J%Armitage%NULL%0,  Tova%Tampe%NULL%1,  Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,   Maria%Roura%NULL%1,   Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,   Edna%Maradiaga%edjamar3006@yahoo.com%1,   Javier%Roberti%jroberti@iecs.org.ar%1,   Maricela%Casco-Aguilar%marykasco@yahoo.com%1,   Alison F.%Ortez%alison_fabiola@yahoo.es%1,   Juan C.%Avila-Flores%javilaflores3@gmail.com%1,   Gloria%González%marilyntoin@yahoo.com%1,   Carolina%Bustillo%mcbu1502@yahoo.com%1,   Alejandra%Calderón%lilianalecalderon@gmail.com%1,   Harry%Bock%hbockme@hotmail.com%1,   María L.%Cafferata%NULL%1,   Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,   Jackeline%Alger%jackelinealger@gmail.com%1,   Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%2,    Julie A.%Gazmararian%null%1,    Winifred Wilkins%Thompson%null%1,  Catherine A.%Boyd%null%0,  Julie A.%Gazmararian%null%1,  Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,  Bohme%G.%coreGivesNoEmail%1,  Chiang%H-H%coreGivesNoEmail%4,  Chiang%H-H%coreGivesNoEmail%0,  Chiang%H-H%coreGivesNoEmail%0,  Chiang%H-H%coreGivesNoEmail%0,  Donohoe%J.%coreGivesNoEmail%1,  Hsien-Hsien%Chiang%coreGivesNoEmail%1,  I-Ling%Sue%coreGivesNoEmail%1,  International%Council of Nurses%coreGivesNoEmail%1,  Mei-Bih%Chen%coreGivesNoEmail%1,  Morgan%DL%coreGivesNoEmail%1,  Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,  Dodgson%JE%coreGivesNoEmail%1,  Tarrant%M%coreGivesNoEmail%1,  Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%2,    Bente%Dahl%null%1,  Elin%Erland%null%0,  Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,  Flowers%Paul%coreGivesNoEmail%1,  Lohm%Davina%coreGivesNoEmail%1,  Stephenson%Niamh%coreGivesNoEmail%1,  Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,   Carlos%Mejia Arbelaez%NULL%1,   Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%2,    Betty%Sam%null%1,    Florence%Bull%null%1,    Steven Bagie%Pieh%null%1,    Jaki%Lambert%null%1,    Florence%Mgawadere%null%1,    Somasundari%Gopalakrishnan%null%1,    Charles A.%Ameh%null%1,    Nynke%van den Broek%null%1,  Susan%Jones%null%0,  Betty%Sam%null%1,  Florence%Bull%null%1,  Steven Bagie%Pieh%null%1,  Jaki%Lambert%null%1,  Florence%Mgawadere%null%1,  Somasundari%Gopalakrishnan%null%1,  Charles A.%Ameh%null%1,  Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,   Miranda%Davies-Tuck%NULL%1,   Hannah G.%Dahlen%NULL%1,   Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%2,    Elizabeth W.%Mitchell%null%1,    Jennifer L.%Williams%null%1,    Kelly%Brumbaugh%null%1,    Michelle%Jones-Bell%null%1,    Debra E.%Pinkney%null%1,    Christine M.%Layton%null%1,    Patricia W.%Mersereau%null%1,    Juliette S.%Kendrick%null%1,    Paula Eguino%Medina%null%1,    Lucia Rojas%Smith%null%1,  Molly M.%Lynch%null%0,  Elizabeth W.%Mitchell%null%1,  Jennifer L.%Williams%null%1,  Kelly%Brumbaugh%null%1,  Michelle%Jones-Bell%null%1,  Debra E.%Pinkney%null%1,  Christine M.%Layton%null%1,  Patricia W.%Mersereau%null%1,  Juliette S.%Kendrick%null%1,  Paula Eguino%Medina%null%1,  Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,   Luoqun%Wei%NULL%1,   Suling%Shi%NULL%1,   Dandan%Jiao%NULL%1,   Runluo%Song%NULL%1,   Lili%Ma%NULL%1,   Hongwei%Wang%NULL%2,   Chao%Wang%NULL%1,   Zhaoguo%Wang%NULL%1,   Yanli%You%NULL%1,   Shuhua%Liu%NULL%1,   Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,   Santiago A.%Morales Mesa%NULL%1,   John%Kinsman%NULL%1,   Anna Mia%Ekström%NULL%0,   Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,   Christopher J%Armitage%NULL%2,   Christopher J%Armitage%NULL%0,   Tova%Tampe%NULL%1,   Kimberly%Dienes%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -822,6 +879,9 @@
       <c r="H1" t="s">
         <v>30</v>
       </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -848,6 +908,9 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -863,7 +926,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
@@ -873,6 +936,9 @@
       </c>
       <c r="H3" t="s">
         <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4">
@@ -889,7 +955,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -899,6 +965,9 @@
       </c>
       <c r="H4" t="s">
         <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5">
@@ -915,7 +984,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -925,6 +994,9 @@
       </c>
       <c r="H5" t="s">
         <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6">
@@ -941,16 +1013,19 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7">
@@ -967,16 +1042,19 @@
         <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -993,7 +1071,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
@@ -1003,6 +1081,9 @@
       </c>
       <c r="H8" t="s">
         <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -1019,16 +1100,19 @@
         <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -1045,7 +1129,7 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
         <v>57</v>
@@ -1055,6 +1139,9 @@
       </c>
       <c r="H10" t="s">
         <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -1071,7 +1158,7 @@
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
         <v>61</v>
@@ -1081,6 +1168,9 @@
       </c>
       <c r="H11" t="s">
         <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1097,7 +1187,7 @@
         <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
         <v>66</v>
@@ -1107,6 +1197,9 @@
       </c>
       <c r="H12" t="s">
         <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -1134,6 +1227,9 @@
       <c r="H13" t="s">
         <v>31</v>
       </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -1149,7 +1245,7 @@
         <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1159,6 +1255,9 @@
       </c>
       <c r="H14" t="s">
         <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1175,7 +1274,7 @@
         <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -1185,6 +1284,9 @@
       </c>
       <c r="H15" t="s">
         <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="16">
@@ -1212,6 +1314,9 @@
       <c r="H16" t="s">
         <v>31</v>
       </c>
+      <c r="I16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -1227,7 +1332,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -1237,6 +1342,9 @@
       </c>
       <c r="H17" t="s">
         <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="18">
@@ -1253,7 +1361,7 @@
         <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
         <v>83</v>
@@ -1263,6 +1371,9 @@
       </c>
       <c r="H18" t="s">
         <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352B9DA5-F628-4F21-8151-9B81107D5323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="155">
   <si>
     <t>Doi</t>
   </si>
@@ -133,9 +140,6 @@
 Conclusions
 id="Par4"&gt;Our findings call for public health interventions that go beyond individual level behavioral change campaigns, to more comprehensively address the broader meso and macro level factors that influence women’ willingness and possibility to protect themselves.
 </t>
-  </si>
-  <si>
-    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1, Maria%Roura%NULL%1, Eduardo%Siqueira%NULL%1]</t>
   </si>
   <si>
     <t>PMC7118940</t>
@@ -173,9 +177,6 @@
 </t>
   </si>
   <si>
-    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1, Edna%Maradiaga%edjamar3006@yahoo.com%1, Javier%Roberti%jroberti@iecs.org.ar%1, Maricela%Casco-Aguilar%marykasco@yahoo.com%1, Alison F.%Ortez%alison_fabiola@yahoo.es%1, Juan C.%Avila-Flores%javilaflores3@gmail.com%1, Gloria%González%marilyntoin@yahoo.com%1, Carolina%Bustillo%mcbu1502@yahoo.com%1, Alejandra%Calderón%lilianalecalderon@gmail.com%1, Harry%Bock%hbockme@hotmail.com%1, María L.%Cafferata%NULL%1, Adriano B.%Tavares%adriano.b.tavares@gmail.com%1, Jackeline%Alger%jackelinealger@gmail.com%1, Moazzam%Ali%alimoa@who.int%1]</t>
-  </si>
-  <si>
     <t>PMC7488691</t>
   </si>
   <si>
@@ -195,9 +196,6 @@
  Similarities emerged among both WIC clients and staff members regarding impressions of H1N1 and the vaccine’s use, suggesting that while the information may be provided, it is not effectively understood or accepted.
  Comprehensive education, policy and planning development regarding pandemic influenza and vaccine acceptance among low-income women is necessary, including improvements in risk communication messages and identifying effective methods to disseminate trusted information to these high priority groups.
 </t>
-  </si>
-  <si>
-    <t>[ Catherine A.%Boyd%null%1,  Julie A.%Gazmararian%null%1,  Winifred Wilkins%Thompson%null%1]</t>
   </si>
   <si>
     <t>Springer</t>
@@ -225,9 +223,6 @@
                </t>
   </si>
   <si>
-    <t>[ Elin%Erland%null%1,  Bente%Dahl%null%1]</t>
-  </si>
-  <si>
     <t>S0266-6138(17)30419-9</t>
   </si>
   <si>
@@ -252,9 +247,6 @@
 Several gaps were identified in the provision of healthcare services to pregnant women during the Zika epidemic.
  Policy makers need to utilize the results from affected communities to develop and implement public policies that adapt and respond to their priorities and needs.
 </t>
-  </si>
-  <si>
-    <t>[Hector M.%Gomez%NULL%1, Carlos%Mejia Arbelaez%NULL%1, Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
   </si>
   <si>
     <t>PMC7065052</t>
@@ -279,9 +271,6 @@
                   Implications for practice
                   future preparedness plans must take into account the impact that epidemics have on the ability of the health system to continue to provide vital routine and emergency maternal and newborn health care. Healthcare providers need to have a stronger voice in health system rebuilding and planning and management to ensure that health service can continue to provide vital maternal and newborn care during epidemics.
                </t>
-  </si>
-  <si>
-    <t>[ Susan%Jones%null%1,  Betty%Sam%null%1,  Florence%Bull%null%1,  Steven Bagie%Pieh%null%1,  Jaki%Lambert%null%1,  Florence%Mgawadere%null%1,  Somasundari%Gopalakrishnan%null%1,  Charles A.%Ameh%null%1,  Nynke%van den Broek%null%1]</t>
   </si>
   <si>
     <t>S0266-6138(16)30351-5</t>
@@ -316,9 +305,6 @@
 </t>
   </si>
   <si>
-    <t>[Caroline S.E.%Homer%NULL%1, Miranda%Davies-Tuck%NULL%1, Hannah G.%Dahlen%NULL%1, Vanessa L.%Scarf%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7510523</t>
   </si>
   <si>
@@ -339,9 +325,6 @@
  Messages directing pregnant women to adopt public health recommendations, particularly for vaccination or prophylactic medication should include a detailed description of the benefits or lack of risk to the fetus and the safety of breastfeeding.
  Additionally, messages should recognize that pregnant women are taught to be selective about taking medication and provide a clear rationale for why the medicine or vaccine is necessary.
 </t>
-  </si>
-  <si>
-    <t>[ Molly M.%Lynch%null%1,  Elizabeth W.%Mitchell%null%1,  Jennifer L.%Williams%null%1,  Kelly%Brumbaugh%null%1,  Michelle%Jones-Bell%null%1,  Debra E.%Pinkney%null%1,  Christine M.%Layton%null%1,  Patricia W.%Mersereau%null%1,  Juliette S.%Kendrick%null%1,  Paula Eguino%Medina%null%1,  Lucia Rojas%Smith%null%1]</t>
   </si>
   <si>
     <t>2012-11-01</t>
@@ -369,9 +352,6 @@
 </t>
   </si>
   <si>
-    <t>[Niuniu%Sun%NULL%1, Luoqun%Wei%NULL%1, Suling%Shi%NULL%1, Dandan%Jiao%NULL%1, Runluo%Song%NULL%1, Lili%Ma%NULL%1, Hongwei%Wang%NULL%1, Chao%Wang%NULL%1, Zhaoguo%Wang%NULL%1, Yanli%You%NULL%1, Shuhua%Liu%NULL%1, Hongyun%Wang%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7141468</t>
   </si>
   <si>
@@ -395,9 +375,6 @@
 </t>
   </si>
   <si>
-    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1, Santiago A.%Morales Mesa%NULL%1, John%Kinsman%NULL%1, Anna Mia%Ekström%NULL%1, Berta N.%Restrepo Jaramillo%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7064904</t>
   </si>
   <si>
@@ -420,31 +397,13 @@
 </t>
   </si>
   <si>
-    <t>[Simon N%Williams%NULL%1, Christopher J%Armitage%NULL%2, Christopher J%Armitage%NULL%0, Tova%Tampe%NULL%1, Kimberly%Dienes%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7387310</t>
   </si>
   <si>
     <t>2020-07-07</t>
   </si>
   <si>
-    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,  Maria%Roura%NULL%1,  Eduardo%Siqueira%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,  Edna%Maradiaga%edjamar3006@yahoo.com%1,  Javier%Roberti%jroberti@iecs.org.ar%1,  Maricela%Casco-Aguilar%marykasco@yahoo.com%1,  Alison F.%Ortez%alison_fabiola@yahoo.es%1,  Juan C.%Avila-Flores%javilaflores3@gmail.com%1,  Gloria%González%marilyntoin@yahoo.com%1,  Carolina%Bustillo%mcbu1502@yahoo.com%0,  Alejandra%Calderón%lilianalecalderon@gmail.com%1,  Harry%Bock%hbockme@hotmail.com%1,  María L.%Cafferata%NULL%1,  Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,  Jackeline%Alger%jackelinealger@gmail.com%1,  Moazzam%Ali%alimoa@who.int%1]</t>
-  </si>
-  <si>
-    <t>[ Catherine A.%Boyd%null%1,   Julie A.%Gazmararian%null%1,   Winifred Wilkins%Thompson%null%1]</t>
-  </si>
-  <si>
     <t>Self-State of Nurses in Caring for Sars Survivors</t>
-  </si>
-  <si>
-    <t>[Benner%P.%coreGivesNoEmail%1, Bohme%G.%coreGivesNoEmail%1, Chiang%H-H%coreGivesNoEmail%4, Chiang%H-H%coreGivesNoEmail%0, Chiang%H-H%coreGivesNoEmail%0, Chiang%H-H%coreGivesNoEmail%0, Donohoe%J.%coreGivesNoEmail%1, Hsien-Hsien%Chiang%coreGivesNoEmail%1, I-Ling%Sue%coreGivesNoEmail%1, International%Council of Nurses%coreGivesNoEmail%1, Mei-Bih%Chen%coreGivesNoEmail%1, Morgan%DL%coreGivesNoEmail%1, Packer%MJ%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>CORE</t>
   </si>
   <si>
     <t>New mothers\u0027 experiences of social disruption and isolation during the severe acute respiratory syndrome outbreak in Hong Kong</t>
@@ -463,12 +422,6 @@
 link_to_subscribed_fulltex</t>
   </si>
   <si>
-    <t>[Chee%YO%coreGivesNoEmail%1, Dodgson%JE%coreGivesNoEmail%1, Tarrant%M%coreGivesNoEmail%1, Watkins%A%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[ Elin%Erland%null%1,   Bente%Dahl%null%1]</t>
-  </si>
-  <si>
     <t>Understanding pandemic influenza behaviour: an exploratory biopsychosocial study</t>
   </si>
   <si>
@@ -484,113 +437,262 @@
  These findings suggest this duality should shape future intervention development</t>
   </si>
   <si>
-    <t>[Davis%Mark%coreGivesNoEmail%1, Flowers%Paul%coreGivesNoEmail%1, Lohm%Davina%coreGivesNoEmail%1, Stephenson%Niamh%coreGivesNoEmail%1, Waller%Emily%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Hector M.%Gomez%NULL%1,  Carlos%Mejia Arbelaez%NULL%1,  Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
-  </si>
-  <si>
-    <t>[ Susan%Jones%null%1,   Betty%Sam%null%1,   Florence%Bull%null%1,   Steven Bagie%Pieh%null%1,   Jaki%Lambert%null%1,   Florence%Mgawadere%null%1,   Somasundari%Gopalakrishnan%null%1,   Charles A.%Ameh%null%1,   Nynke%van den Broek%null%1]</t>
-  </si>
-  <si>
-    <t>[Caroline S.E.%Homer%NULL%1,  Miranda%Davies-Tuck%NULL%1,  Hannah G.%Dahlen%NULL%1,  Vanessa L.%Scarf%NULL%1]</t>
-  </si>
-  <si>
-    <t>[ Molly M.%Lynch%null%1,   Elizabeth W.%Mitchell%null%1,   Jennifer L.%Williams%null%1,   Kelly%Brumbaugh%null%1,   Michelle%Jones-Bell%null%1,   Debra E.%Pinkney%null%1,   Christine M.%Layton%null%1,   Patricia W.%Mersereau%null%1,   Juliette S.%Kendrick%null%1,   Paula Eguino%Medina%null%1,   Lucia Rojas%Smith%null%1]</t>
-  </si>
-  <si>
-    <t>[Niuniu%Sun%NULL%1,  Luoqun%Wei%NULL%1,  Suling%Shi%NULL%1,  Dandan%Jiao%NULL%1,  Runluo%Song%NULL%1,  Lili%Ma%NULL%1,  Hongwei%Wang%NULL%2,  Chao%Wang%NULL%1,  Zhaoguo%Wang%NULL%1,  Yanli%You%NULL%1,  Shuhua%Liu%NULL%1,  Hongyun%Wang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,  Santiago A.%Morales Mesa%NULL%1,  John%Kinsman%NULL%1,  Anna Mia%Ekström%NULL%1,  Berta N.%Restrepo Jaramillo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Simon N%Williams%NULL%1,  Christopher J%Armitage%NULL%2,  Christopher J%Armitage%NULL%0,  Tova%Tampe%NULL%1,  Kimberly%Dienes%NULL%1]</t>
-  </si>
-  <si>
     <t>Other found locations</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,   Maria%Roura%NULL%1,   Eduardo%Siqueira%NULL%1]</t>
-  </si>
-  <si>
     <t>_PMC_Springer</t>
   </si>
   <si>
-    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,   Edna%Maradiaga%edjamar3006@yahoo.com%1,   Javier%Roberti%jroberti@iecs.org.ar%1,   Maricela%Casco-Aguilar%marykasco@yahoo.com%1,   Alison F.%Ortez%alison_fabiola@yahoo.es%1,   Juan C.%Avila-Flores%javilaflores3@gmail.com%1,   Gloria%González%marilyntoin@yahoo.com%1,   Carolina%Bustillo%mcbu1502@yahoo.com%1,   Alejandra%Calderón%lilianalecalderon@gmail.com%1,   Harry%Bock%hbockme@hotmail.com%1,   María L.%Cafferata%NULL%1,   Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,   Jackeline%Alger%jackelinealger@gmail.com%1,   Moazzam%Ali%alimoa@who.int%1]</t>
-  </si>
-  <si>
-    <t>[ Catherine A.%Boyd%null%2,    Julie A.%Gazmararian%null%1,    Winifred Wilkins%Thompson%null%1,  Catherine A.%Boyd%null%0,  Julie A.%Gazmararian%null%1,  Winifred Wilkins%Thompson%null%1]</t>
-  </si>
-  <si>
-    <t>[Benner%P.%coreGivesNoEmail%1,  Bohme%G.%coreGivesNoEmail%1,  Chiang%H-H%coreGivesNoEmail%4,  Chiang%H-H%coreGivesNoEmail%0,  Chiang%H-H%coreGivesNoEmail%0,  Chiang%H-H%coreGivesNoEmail%0,  Donohoe%J.%coreGivesNoEmail%1,  Hsien-Hsien%Chiang%coreGivesNoEmail%1,  I-Ling%Sue%coreGivesNoEmail%1,  International%Council of Nurses%coreGivesNoEmail%1,  Mei-Bih%Chen%coreGivesNoEmail%1,  Morgan%DL%coreGivesNoEmail%1,  Packer%MJ%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Chee%YO%coreGivesNoEmail%1,  Dodgson%JE%coreGivesNoEmail%1,  Tarrant%M%coreGivesNoEmail%1,  Watkins%A%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[ Elin%Erland%null%2,    Bente%Dahl%null%1,  Elin%Erland%null%0,  Bente%Dahl%null%1]</t>
-  </si>
-  <si>
-    <t>[Davis%Mark%coreGivesNoEmail%1,  Flowers%Paul%coreGivesNoEmail%1,  Lohm%Davina%coreGivesNoEmail%1,  Stephenson%Niamh%coreGivesNoEmail%1,  Waller%Emily%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Hector M.%Gomez%NULL%1,   Carlos%Mejia Arbelaez%NULL%1,   Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
-  </si>
-  <si>
     <t>_PMC</t>
   </si>
   <si>
-    <t>[ Susan%Jones%null%2,    Betty%Sam%null%1,    Florence%Bull%null%1,    Steven Bagie%Pieh%null%1,    Jaki%Lambert%null%1,    Florence%Mgawadere%null%1,    Somasundari%Gopalakrishnan%null%1,    Charles A.%Ameh%null%1,    Nynke%van den Broek%null%1,  Susan%Jones%null%0,  Betty%Sam%null%1,  Florence%Bull%null%1,  Steven Bagie%Pieh%null%1,  Jaki%Lambert%null%1,  Florence%Mgawadere%null%1,  Somasundari%Gopalakrishnan%null%1,  Charles A.%Ameh%null%1,  Nynke%van den Broek%null%1]</t>
-  </si>
-  <si>
-    <t>[Caroline S.E.%Homer%NULL%1,   Miranda%Davies-Tuck%NULL%1,   Hannah G.%Dahlen%NULL%1,   Vanessa L.%Scarf%NULL%1]</t>
-  </si>
-  <si>
     <t>_PMC_elsevier</t>
   </si>
   <si>
-    <t>[ Molly M.%Lynch%null%2,    Elizabeth W.%Mitchell%null%1,    Jennifer L.%Williams%null%1,    Kelly%Brumbaugh%null%1,    Michelle%Jones-Bell%null%1,    Debra E.%Pinkney%null%1,    Christine M.%Layton%null%1,    Patricia W.%Mersereau%null%1,    Juliette S.%Kendrick%null%1,    Paula Eguino%Medina%null%1,    Lucia Rojas%Smith%null%1,  Molly M.%Lynch%null%0,  Elizabeth W.%Mitchell%null%1,  Jennifer L.%Williams%null%1,  Kelly%Brumbaugh%null%1,  Michelle%Jones-Bell%null%1,  Debra E.%Pinkney%null%1,  Christine M.%Layton%null%1,  Patricia W.%Mersereau%null%1,  Juliette S.%Kendrick%null%1,  Paula Eguino%Medina%null%1,  Lucia Rojas%Smith%null%1]</t>
-  </si>
-  <si>
-    <t>[Niuniu%Sun%NULL%1,   Luoqun%Wei%NULL%1,   Suling%Shi%NULL%1,   Dandan%Jiao%NULL%1,   Runluo%Song%NULL%1,   Lili%Ma%NULL%1,   Hongwei%Wang%NULL%2,   Chao%Wang%NULL%1,   Zhaoguo%Wang%NULL%1,   Yanli%You%NULL%1,   Shuhua%Liu%NULL%1,   Hongyun%Wang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,   Santiago A.%Morales Mesa%NULL%1,   John%Kinsman%NULL%1,   Anna Mia%Ekström%NULL%0,   Berta N.%Restrepo Jaramillo%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Simon N%Williams%NULL%1,   Christopher J%Armitage%NULL%2,   Christopher J%Armitage%NULL%0,   Tova%Tampe%NULL%1,   Kimberly%Dienes%NULL%1]</t>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,    Maria%Roura%NULL%1,    Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,    Edna%Maradiaga%edjamar3006@yahoo.com%1,    Javier%Roberti%jroberti@iecs.org.ar%1,    Maricela%Casco-Aguilar%marykasco@yahoo.com%1,    Alison F.%Ortez%alison_fabiola@yahoo.es%1,    Juan C.%Avila-Flores%javilaflores3@gmail.com%1,    Gloria%González%marilyntoin@yahoo.com%1,    Carolina%Bustillo%mcbu1502@yahoo.com%0,    Alejandra%Calderón%lilianalecalderon@gmail.com%1,    Harry%Bock%hbockme@hotmail.com%1,    María L.%Cafferata%NULL%1,    Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,    Jackeline%Alger%jackelinealger@gmail.com%1,    Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,     Julie A.%Gazmararian%null%1,     Winifred Wilkins%Thompson%null%1,   Catherine A.%Boyd%null%1,   Julie A.%Gazmararian%null%1,   Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,   Bohme%G.%coreGivesNoEmail%1,   Chiang%H-H%coreGivesNoEmail%4,   Chiang%H-H%coreGivesNoEmail%0,   Chiang%H-H%coreGivesNoEmail%0,   Chiang%H-H%coreGivesNoEmail%0,   Donohoe%J.%coreGivesNoEmail%1,   Hsien-Hsien%Chiang%coreGivesNoEmail%1,   I-Ling%Sue%coreGivesNoEmail%1,   International%Council of Nurses%coreGivesNoEmail%1,   Mei-Bih%Chen%coreGivesNoEmail%1,   Morgan%DL%coreGivesNoEmail%1,   Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,   Dodgson%JE%coreGivesNoEmail%1,   Tarrant%M%coreGivesNoEmail%1,   Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,     Bente%Dahl%null%1,   Elin%Erland%null%1,   Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,   Flowers%Paul%coreGivesNoEmail%1,   Lohm%Davina%coreGivesNoEmail%1,   Stephenson%Niamh%coreGivesNoEmail%1,   Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,    Carlos%Mejia Arbelaez%NULL%1,    Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,     Betty%Sam%null%1,     Florence%Bull%null%1,     Steven Bagie%Pieh%null%1,     Jaki%Lambert%null%1,     Florence%Mgawadere%null%1,     Somasundari%Gopalakrishnan%null%1,     Charles A.%Ameh%null%1,     Nynke%van den Broek%null%1,   Susan%Jones%null%1,   Betty%Sam%null%1,   Florence%Bull%null%1,   Steven Bagie%Pieh%null%1,   Jaki%Lambert%null%1,   Florence%Mgawadere%null%1,   Somasundari%Gopalakrishnan%null%1,   Charles A.%Ameh%null%1,   Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,    Miranda%Davies-Tuck%NULL%1,    Hannah G.%Dahlen%NULL%1,    Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,     Elizabeth W.%Mitchell%null%1,     Jennifer L.%Williams%null%1,     Kelly%Brumbaugh%null%1,     Michelle%Jones-Bell%null%1,     Debra E.%Pinkney%null%1,     Christine M.%Layton%null%1,     Patricia W.%Mersereau%null%1,     Juliette S.%Kendrick%null%1,     Paula Eguino%Medina%null%1,     Lucia Rojas%Smith%null%1,   Molly M.%Lynch%null%1,   Elizabeth W.%Mitchell%null%1,   Jennifer L.%Williams%null%1,   Kelly%Brumbaugh%null%1,   Michelle%Jones-Bell%null%1,   Debra E.%Pinkney%null%1,   Christine M.%Layton%null%1,   Patricia W.%Mersereau%null%1,   Juliette S.%Kendrick%null%1,   Paula Eguino%Medina%null%1,   Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,    Luoqun%Wei%NULL%1,    Suling%Shi%NULL%1,    Dandan%Jiao%NULL%1,    Runluo%Song%NULL%1,    Lili%Ma%NULL%1,    Hongwei%Wang%NULL%1,    Chao%Wang%NULL%1,    Zhaoguo%Wang%NULL%1,    Yanli%You%NULL%1,    Shuhua%Liu%NULL%1,    Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,    Santiago A.%Morales Mesa%NULL%1,    John%Kinsman%NULL%1,    Anna Mia%Ekström%NULL%0,    Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,    Christopher J%Armitage%NULL%2,    Christopher J%Armitage%NULL%0,    Tova%Tampe%NULL%1,    Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,     Maria%Roura%NULL%1,     Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,     Edna%Maradiaga%edjamar3006@yahoo.com%1,     Javier%Roberti%jroberti@iecs.org.ar%1,     Maricela%Casco-Aguilar%marykasco@yahoo.com%1,     Alison F.%Ortez%alison_fabiola@yahoo.es%1,     Juan C.%Avila-Flores%javilaflores3@gmail.com%1,     Gloria%González%marilyntoin@yahoo.com%1,     Carolina%Bustillo%mcbu1502@yahoo.com%0,     Alejandra%Calderón%lilianalecalderon@gmail.com%1,     Harry%Bock%hbockme@hotmail.com%1,     María L.%Cafferata%NULL%1,     Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,     Jackeline%Alger%jackelinealger@gmail.com%1,     Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,      Julie A.%Gazmararian%null%1,      Winifred Wilkins%Thompson%null%1,    Catherine A.%Boyd%null%1,    Julie A.%Gazmararian%null%1,    Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,    Bohme%G.%coreGivesNoEmail%1,    Chiang%H-H%coreGivesNoEmail%4,    Chiang%H-H%coreGivesNoEmail%0,    Chiang%H-H%coreGivesNoEmail%0,    Chiang%H-H%coreGivesNoEmail%0,    Donohoe%J.%coreGivesNoEmail%1,    Hsien-Hsien%Chiang%coreGivesNoEmail%1,    I-Ling%Sue%coreGivesNoEmail%1,    International%Council of Nurses%coreGivesNoEmail%1,    Mei-Bih%Chen%coreGivesNoEmail%1,    Morgan%DL%coreGivesNoEmail%1,    Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,    Dodgson%JE%coreGivesNoEmail%1,    Tarrant%M%coreGivesNoEmail%1,    Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,      Bente%Dahl%null%1,    Elin%Erland%null%1,    Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,    Flowers%Paul%coreGivesNoEmail%1,    Lohm%Davina%coreGivesNoEmail%1,    Stephenson%Niamh%coreGivesNoEmail%1,    Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,     Carlos%Mejia Arbelaez%NULL%1,     Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,      Betty%Sam%null%1,      Florence%Bull%null%1,      Steven Bagie%Pieh%null%1,      Jaki%Lambert%null%1,      Florence%Mgawadere%null%1,      Somasundari%Gopalakrishnan%null%1,      Charles A.%Ameh%null%1,      Nynke%van den Broek%null%1,    Susan%Jones%null%1,    Betty%Sam%null%1,    Florence%Bull%null%1,    Steven Bagie%Pieh%null%1,    Jaki%Lambert%null%1,    Florence%Mgawadere%null%1,    Somasundari%Gopalakrishnan%null%1,    Charles A.%Ameh%null%1,    Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,     Miranda%Davies-Tuck%NULL%1,     Hannah G.%Dahlen%NULL%1,     Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,      Elizabeth W.%Mitchell%null%1,      Jennifer L.%Williams%null%1,      Kelly%Brumbaugh%null%1,      Michelle%Jones-Bell%null%1,      Debra E.%Pinkney%null%1,      Christine M.%Layton%null%1,      Patricia W.%Mersereau%null%1,      Juliette S.%Kendrick%null%1,      Paula Eguino%Medina%null%1,      Lucia Rojas%Smith%null%1,    Molly M.%Lynch%null%1,    Elizabeth W.%Mitchell%null%1,    Jennifer L.%Williams%null%1,    Kelly%Brumbaugh%null%1,    Michelle%Jones-Bell%null%1,    Debra E.%Pinkney%null%1,    Christine M.%Layton%null%1,    Patricia W.%Mersereau%null%1,    Juliette S.%Kendrick%null%1,    Paula Eguino%Medina%null%1,    Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,     Luoqun%Wei%NULL%1,     Suling%Shi%NULL%1,     Dandan%Jiao%NULL%1,     Runluo%Song%NULL%1,     Lili%Ma%NULL%1,     Hongwei%Wang%NULL%1,     Chao%Wang%NULL%1,     Zhaoguo%Wang%NULL%1,     Yanli%You%NULL%1,     Shuhua%Liu%NULL%1,     Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,     Santiago A.%Morales Mesa%NULL%1,     John%Kinsman%NULL%1,     Anna Mia%Ekström%NULL%0,     Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,     Christopher J%Armitage%NULL%2,     Christopher J%Armitage%NULL%0,     Tova%Tampe%NULL%1,     Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,      Maria%Roura%NULL%1,      Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,      Edna%Maradiaga%edjamar3006@yahoo.com%1,      Javier%Roberti%jroberti@iecs.org.ar%1,      Maricela%Casco-Aguilar%marykasco@yahoo.com%1,      Alison F.%Ortez%alison_fabiola@yahoo.es%1,      Juan C.%Avila-Flores%javilaflores3@gmail.com%1,      Gloria%González%marilyntoin@yahoo.com%1,      Carolina%Bustillo%mcbu1502@yahoo.com%0,      Alejandra%Calderón%lilianalecalderon@gmail.com%1,      Harry%Bock%hbockme@hotmail.com%1,      María L.%Cafferata%NULL%1,      Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,      Jackeline%Alger%jackelinealger@gmail.com%1,      Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,       Julie A.%Gazmararian%null%1,       Winifred Wilkins%Thompson%null%1,     Catherine A.%Boyd%null%1,     Julie A.%Gazmararian%null%1,     Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,     Bohme%G.%coreGivesNoEmail%1,     Chiang%H-H%coreGivesNoEmail%4,     Chiang%H-H%coreGivesNoEmail%0,     Chiang%H-H%coreGivesNoEmail%0,     Chiang%H-H%coreGivesNoEmail%0,     Donohoe%J.%coreGivesNoEmail%1,     Hsien-Hsien%Chiang%coreGivesNoEmail%1,     I-Ling%Sue%coreGivesNoEmail%1,     International%Council of Nurses%coreGivesNoEmail%1,     Mei-Bih%Chen%coreGivesNoEmail%1,     Morgan%DL%coreGivesNoEmail%1,     Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,     Dodgson%JE%coreGivesNoEmail%1,     Tarrant%M%coreGivesNoEmail%1,     Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,       Bente%Dahl%null%1,     Elin%Erland%null%1,     Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,     Flowers%Paul%coreGivesNoEmail%1,     Lohm%Davina%coreGivesNoEmail%1,     Stephenson%Niamh%coreGivesNoEmail%1,     Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,      Carlos%Mejia Arbelaez%NULL%1,      Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,       Betty%Sam%null%1,       Florence%Bull%null%1,       Steven Bagie%Pieh%null%1,       Jaki%Lambert%null%1,       Florence%Mgawadere%null%1,       Somasundari%Gopalakrishnan%null%1,       Charles A.%Ameh%null%1,       Nynke%van den Broek%null%1,     Susan%Jones%null%1,     Betty%Sam%null%1,     Florence%Bull%null%1,     Steven Bagie%Pieh%null%1,     Jaki%Lambert%null%1,     Florence%Mgawadere%null%1,     Somasundari%Gopalakrishnan%null%1,     Charles A.%Ameh%null%1,     Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,      Miranda%Davies-Tuck%NULL%1,      Hannah G.%Dahlen%NULL%1,      Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,       Elizabeth W.%Mitchell%null%1,       Jennifer L.%Williams%null%1,       Kelly%Brumbaugh%null%1,       Michelle%Jones-Bell%null%1,       Debra E.%Pinkney%null%1,       Christine M.%Layton%null%1,       Patricia W.%Mersereau%null%1,       Juliette S.%Kendrick%null%1,       Paula Eguino%Medina%null%1,       Lucia Rojas%Smith%null%1,     Molly M.%Lynch%null%1,     Elizabeth W.%Mitchell%null%1,     Jennifer L.%Williams%null%1,     Kelly%Brumbaugh%null%1,     Michelle%Jones-Bell%null%1,     Debra E.%Pinkney%null%1,     Christine M.%Layton%null%1,     Patricia W.%Mersereau%null%1,     Juliette S.%Kendrick%null%1,     Paula Eguino%Medina%null%1,     Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,      Luoqun%Wei%NULL%1,      Suling%Shi%NULL%1,      Dandan%Jiao%NULL%1,      Runluo%Song%NULL%1,      Lili%Ma%NULL%1,      Hongwei%Wang%NULL%1,      Chao%Wang%NULL%1,      Zhaoguo%Wang%NULL%1,      Yanli%You%NULL%1,      Shuhua%Liu%NULL%1,      Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,      Santiago A.%Morales Mesa%NULL%1,      John%Kinsman%NULL%1,      Anna Mia%Ekström%NULL%0,      Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,      Christopher J%Armitage%NULL%2,      Christopher J%Armitage%NULL%0,      Tova%Tampe%NULL%1,      Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,       Maria%Roura%NULL%1,       Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,       Edna%Maradiaga%edjamar3006@yahoo.com%1,       Javier%Roberti%jroberti@iecs.org.ar%1,       Maricela%Casco-Aguilar%marykasco@yahoo.com%1,       Alison F.%Ortez%alison_fabiola@yahoo.es%1,       Juan C.%Avila-Flores%javilaflores3@gmail.com%1,       Gloria%González%marilyntoin@yahoo.com%1,       Carolina%Bustillo%mcbu1502@yahoo.com%0,       Alejandra%Calderón%lilianalecalderon@gmail.com%1,       Harry%Bock%hbockme@hotmail.com%1,       María L.%Cafferata%NULL%1,       Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,       Jackeline%Alger%jackelinealger@gmail.com%1,       Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,        Julie A.%Gazmararian%null%1,        Winifred Wilkins%Thompson%null%1,      Catherine A.%Boyd%null%1,      Julie A.%Gazmararian%null%1,      Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,      Bohme%G.%coreGivesNoEmail%1,      Chiang%H-H%coreGivesNoEmail%4,      Chiang%H-H%coreGivesNoEmail%0,      Chiang%H-H%coreGivesNoEmail%0,      Chiang%H-H%coreGivesNoEmail%0,      Donohoe%J.%coreGivesNoEmail%1,      Hsien-Hsien%Chiang%coreGivesNoEmail%1,      I-Ling%Sue%coreGivesNoEmail%1,      International%Council of Nurses%coreGivesNoEmail%1,      Mei-Bih%Chen%coreGivesNoEmail%1,      Morgan%DL%coreGivesNoEmail%1,      Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,      Dodgson%JE%coreGivesNoEmail%1,      Tarrant%M%coreGivesNoEmail%1,      Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,        Bente%Dahl%null%1,      Elin%Erland%null%1,      Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,      Flowers%Paul%coreGivesNoEmail%1,      Lohm%Davina%coreGivesNoEmail%1,      Stephenson%Niamh%coreGivesNoEmail%1,      Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,       Carlos%Mejia Arbelaez%NULL%1,       Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,        Betty%Sam%null%1,        Florence%Bull%null%1,        Steven Bagie%Pieh%null%1,        Jaki%Lambert%null%1,        Florence%Mgawadere%null%1,        Somasundari%Gopalakrishnan%null%1,        Charles A.%Ameh%null%1,        Nynke%van den Broek%null%1,      Susan%Jones%null%1,      Betty%Sam%null%1,      Florence%Bull%null%1,      Steven Bagie%Pieh%null%1,      Jaki%Lambert%null%1,      Florence%Mgawadere%null%1,      Somasundari%Gopalakrishnan%null%1,      Charles A.%Ameh%null%1,      Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,       Miranda%Davies-Tuck%NULL%1,       Hannah G.%Dahlen%NULL%1,       Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,        Elizabeth W.%Mitchell%null%1,        Jennifer L.%Williams%null%1,        Kelly%Brumbaugh%null%1,        Michelle%Jones-Bell%null%1,        Debra E.%Pinkney%null%1,        Christine M.%Layton%null%1,        Patricia W.%Mersereau%null%1,        Juliette S.%Kendrick%null%1,        Paula Eguino%Medina%null%1,        Lucia Rojas%Smith%null%1,      Molly M.%Lynch%null%1,      Elizabeth W.%Mitchell%null%1,      Jennifer L.%Williams%null%1,      Kelly%Brumbaugh%null%1,      Michelle%Jones-Bell%null%1,      Debra E.%Pinkney%null%1,      Christine M.%Layton%null%1,      Patricia W.%Mersereau%null%1,      Juliette S.%Kendrick%null%1,      Paula Eguino%Medina%null%1,      Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,       Luoqun%Wei%NULL%1,       Suling%Shi%NULL%1,       Dandan%Jiao%NULL%1,       Runluo%Song%NULL%1,       Lili%Ma%NULL%1,       Hongwei%Wang%NULL%1,       Chao%Wang%NULL%1,       Zhaoguo%Wang%NULL%1,       Yanli%You%NULL%1,       Shuhua%Liu%NULL%1,       Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,       Santiago A.%Morales Mesa%NULL%1,       John%Kinsman%NULL%1,       Anna Mia%Ekström%NULL%0,       Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,       Christopher J%Armitage%NULL%2,       Christopher J%Armitage%NULL%0,       Tova%Tampe%NULL%1,       Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,        Maria%Roura%NULL%1,        Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,        Edna%Maradiaga%edjamar3006@yahoo.com%1,        Javier%Roberti%jroberti@iecs.org.ar%1,        Maricela%Casco-Aguilar%marykasco@yahoo.com%1,        Alison F.%Ortez%alison_fabiola@yahoo.es%1,        Juan C.%Avila-Flores%javilaflores3@gmail.com%1,        Gloria%González%marilyntoin@yahoo.com%1,        Carolina%Bustillo%mcbu1502@yahoo.com%0,        Alejandra%Calderón%lilianalecalderon@gmail.com%1,        Harry%Bock%hbockme@hotmail.com%1,        María L.%Cafferata%NULL%1,        Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,        Jackeline%Alger%jackelinealger@gmail.com%1,        Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,         Julie A.%Gazmararian%null%1,         Winifred Wilkins%Thompson%null%1,       Catherine A.%Boyd%null%1,       Julie A.%Gazmararian%null%1,       Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,       Bohme%G.%coreGivesNoEmail%1,       Chiang%H-H%coreGivesNoEmail%4,       Chiang%H-H%coreGivesNoEmail%0,       Chiang%H-H%coreGivesNoEmail%0,       Chiang%H-H%coreGivesNoEmail%0,       Donohoe%J.%coreGivesNoEmail%1,       Hsien-Hsien%Chiang%coreGivesNoEmail%1,       I-Ling%Sue%coreGivesNoEmail%1,       International%Council of Nurses%coreGivesNoEmail%1,       Mei-Bih%Chen%coreGivesNoEmail%1,       Morgan%DL%coreGivesNoEmail%1,       Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,       Dodgson%JE%coreGivesNoEmail%1,       Tarrant%M%coreGivesNoEmail%1,       Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,         Bente%Dahl%null%1,       Elin%Erland%null%1,       Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,       Flowers%Paul%coreGivesNoEmail%1,       Lohm%Davina%coreGivesNoEmail%1,       Stephenson%Niamh%coreGivesNoEmail%1,       Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,        Carlos%Mejia Arbelaez%NULL%1,        Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,         Betty%Sam%null%1,         Florence%Bull%null%1,         Steven Bagie%Pieh%null%1,         Jaki%Lambert%null%1,         Florence%Mgawadere%null%1,         Somasundari%Gopalakrishnan%null%1,         Charles A.%Ameh%null%1,         Nynke%van den Broek%null%1,       Susan%Jones%null%1,       Betty%Sam%null%1,       Florence%Bull%null%1,       Steven Bagie%Pieh%null%1,       Jaki%Lambert%null%1,       Florence%Mgawadere%null%1,       Somasundari%Gopalakrishnan%null%1,       Charles A.%Ameh%null%1,       Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,        Miranda%Davies-Tuck%NULL%1,        Hannah G.%Dahlen%NULL%1,        Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,         Elizabeth W.%Mitchell%null%1,         Jennifer L.%Williams%null%1,         Kelly%Brumbaugh%null%1,         Michelle%Jones-Bell%null%1,         Debra E.%Pinkney%null%1,         Christine M.%Layton%null%1,         Patricia W.%Mersereau%null%1,         Juliette S.%Kendrick%null%1,         Paula Eguino%Medina%null%1,         Lucia Rojas%Smith%null%1,       Molly M.%Lynch%null%1,       Elizabeth W.%Mitchell%null%1,       Jennifer L.%Williams%null%1,       Kelly%Brumbaugh%null%1,       Michelle%Jones-Bell%null%1,       Debra E.%Pinkney%null%1,       Christine M.%Layton%null%1,       Patricia W.%Mersereau%null%1,       Juliette S.%Kendrick%null%1,       Paula Eguino%Medina%null%1,       Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,        Luoqun%Wei%NULL%1,        Suling%Shi%NULL%1,        Dandan%Jiao%NULL%1,        Runluo%Song%NULL%1,        Lili%Ma%NULL%1,        Hongwei%Wang%NULL%1,        Chao%Wang%NULL%1,        Zhaoguo%Wang%NULL%1,        Yanli%You%NULL%1,        Shuhua%Liu%NULL%1,        Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,        Santiago A.%Morales Mesa%NULL%1,        John%Kinsman%NULL%1,        Anna Mia%Ekström%NULL%0,        Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,        Christopher J%Armitage%NULL%2,        Christopher J%Armitage%NULL%0,        Tova%Tampe%NULL%1,        Kimberly%Dienes%NULL%1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy mmm"/>
-    <numFmt numFmtId="165" formatCode="yyyy mmm d"/>
-    <numFmt numFmtId="166" formatCode="yyyy mmmm"/>
-    <numFmt numFmtId="167" formatCode="yyyy mmmm d"/>
+    <numFmt numFmtId="164" formatCode="yyyy\ mmm"/>
+    <numFmt numFmtId="165" formatCode="yyyy\ mmm\ d"/>
+    <numFmt numFmtId="166" formatCode="yyyy\ mmmm"/>
+    <numFmt numFmtId="167" formatCode="yyyy\ mmmm\ d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -598,7 +700,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -608,50 +710,45 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -841,20 +938,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,15 +982,15 @@
         <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>43891.0</v>
+        <v>43891</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -909,15 +1011,15 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>43924.0</v>
+        <v>43924</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -926,288 +1028,288 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
       <c r="I3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>44086.0</v>
+        <v>44086</v>
       </c>
       <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>41456.0</v>
+        <v>41456</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>39083.0</v>
+        <v>39083</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3">
-        <v>40330.0</v>
+        <v>40330</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>43070.0</v>
+        <v>43070</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
       <c r="I8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>42491.0</v>
+        <v>42491</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
         <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>43831.0</v>
+        <v>43831</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
         <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>42979.0</v>
+        <v>42979</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>44228.0</v>
+        <v>44228</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>43230.0</v>
+        <v>43230</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -1228,68 +1330,68 @@
         <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>41214.0</v>
+        <v>41214</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
         <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1315,87 +1417,87 @@
         <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="3">
-        <v>43831.0</v>
+        <v>43831</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
         <v>31</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>44032.0</v>
+        <v>44032</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
-  <drawing r:id="rId18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="196">
   <si>
     <t>Doi</t>
   </si>
@@ -663,6 +663,140 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,        Christopher J%Armitage%NULL%2,        Christopher J%Armitage%NULL%0,        Tova%Tampe%NULL%1,        Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Women\u2019s Health Perceptions and Beliefs Related to Zika Virus Exposure during the 2016 Outbreak in Northern Brazil"</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%1, Kacey C.%Ernst%xref no email%1, Francisco Fernando%Martins%xref no email%1, Cicera da Silva%Martins%xref no email%1, Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-16</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,         Maria%Roura%NULL%1,         Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,         Edna%Maradiaga%edjamar3006@yahoo.com%1,         Javier%Roberti%jroberti@iecs.org.ar%1,         Maricela%Casco-Aguilar%marykasco@yahoo.com%1,         Alison F.%Ortez%alison_fabiola@yahoo.es%1,         Juan C.%Avila-Flores%javilaflores3@gmail.com%1,         Gloria%González%marilyntoin@yahoo.com%1,         Carolina%Bustillo%mcbu1502@yahoo.com%0,         Alejandra%Calderón%lilianalecalderon@gmail.com%1,         Harry%Bock%hbockme@hotmail.com%1,         María L.%Cafferata%NULL%1,         Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,         Jackeline%Alger%jackelinealger@gmail.com%1,         Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,          Julie A.%Gazmararian%null%1,          Winifred Wilkins%Thompson%null%1,        Catherine A.%Boyd%null%1,        Julie A.%Gazmararian%null%1,        Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,        Bohme%G.%coreGivesNoEmail%1,        Chiang%H-H%coreGivesNoEmail%4,        Chiang%H-H%coreGivesNoEmail%0,        Chiang%H-H%coreGivesNoEmail%0,        Chiang%H-H%coreGivesNoEmail%0,        Donohoe%J.%coreGivesNoEmail%1,        Hsien-Hsien%Chiang%coreGivesNoEmail%1,        I-Ling%Sue%coreGivesNoEmail%1,        International%Council of Nurses%coreGivesNoEmail%1,        Mei-Bih%Chen%coreGivesNoEmail%1,        Morgan%DL%coreGivesNoEmail%1,        Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,        Dodgson%JE%coreGivesNoEmail%1,        Tarrant%M%coreGivesNoEmail%1,        Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,          Bente%Dahl%null%1,        Elin%Erland%null%1,        Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,        Flowers%Paul%coreGivesNoEmail%1,        Lohm%Davina%coreGivesNoEmail%1,        Stephenson%Niamh%coreGivesNoEmail%1,        Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,         Carlos%Mejia Arbelaez%NULL%1,         Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,          Betty%Sam%null%1,          Florence%Bull%null%1,          Steven Bagie%Pieh%null%1,          Jaki%Lambert%null%1,          Florence%Mgawadere%null%1,          Somasundari%Gopalakrishnan%null%1,          Charles A.%Ameh%null%1,          Nynke%van den Broek%null%1,        Susan%Jones%null%1,        Betty%Sam%null%1,        Florence%Bull%null%1,        Steven Bagie%Pieh%null%1,        Jaki%Lambert%null%1,        Florence%Mgawadere%null%1,        Somasundari%Gopalakrishnan%null%1,        Charles A.%Ameh%null%1,        Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,         Miranda%Davies-Tuck%NULL%1,         Hannah G.%Dahlen%NULL%1,         Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Women\u2019s lives in times of Zika: mosquito-controlled lives?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Zika virus infection during pregnancy is a cause of congenital brain abnormalities.
+ Its consequences to pregnancies has made governments, national and international agencies issue advices and recommendations to women.
+ There is a clear need to investigate how the Zika outbreak affects the decisions that women take concerning their lives and the life of their families, as well as how women are psychologically and emotionally dealing with the outbreak.
+ We conducted a qualitative study to address the impact of the Zika epidemic on the family life of women living in Brazil, Puerto Rico, and the US, who were affected by it to shed light on the social repercussions of Zika.
+ Women were recruited through the snowball sampling technique and data was collected through semi-structured interviews.
+ We describe the effects in mental health and the coping strategies that women use to deal with the Zika epidemic.
+ Zika is taking a heavy toll on women\u2019s emotional well-being.
+ They are coping with feelings of fear, helplessness, and uncertainty by taking drastic precautions to avoid infection that affect all areas of their lives.
+ Coping strategies pose obstacles in professional life, lead to social isolation, including from family and partner, and threaten the emotional and physical well-being of women.
+ Our findings suggest that the impacts of the Zika epidemic on women may be universal and global.
+ Zika infection is a silent and heavy burden on women\u2019s shoulders.
+</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%1, Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,          Elizabeth W.%Mitchell%null%1,          Jennifer L.%Williams%null%1,          Kelly%Brumbaugh%null%1,          Michelle%Jones-Bell%null%1,          Debra E.%Pinkney%null%1,          Christine M.%Layton%null%1,          Patricia W.%Mersereau%null%1,          Juliette S.%Kendrick%null%1,          Paula Eguino%Medina%null%1,          Lucia Rojas%Smith%null%1,        Molly M.%Lynch%null%1,        Elizabeth W.%Mitchell%null%1,        Jennifer L.%Williams%null%1,        Kelly%Brumbaugh%null%1,        Michelle%Jones-Bell%null%1,        Debra E.%Pinkney%null%1,        Christine M.%Layton%null%1,        Patricia W.%Mersereau%null%1,        Juliette S.%Kendrick%null%1,        Paula Eguino%Medina%null%1,        Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,         Luoqun%Wei%NULL%1,         Suling%Shi%NULL%1,         Dandan%Jiao%NULL%1,         Runluo%Song%NULL%1,         Lili%Ma%NULL%1,         Hongwei%Wang%NULL%1,         Chao%Wang%NULL%1,         Zhaoguo%Wang%NULL%1,         Yanli%You%NULL%1,         Shuhua%Liu%NULL%1,         Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Effect of COVID-19 pandemic on women\u2019s health and safety: A study of immigrant survivors of intimate partner violence"</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%1, Maria%Hartley%xref no email%1, Jyoti%Saha%xref no email%1, Sarah%Murray%xref no email%1, Nancy%Glass%xref no email%1, Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,         Santiago A.%Morales Mesa%NULL%1,         John%Kinsman%NULL%1,         Anna Mia%Ekström%NULL%1,         Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,         Christopher J%Armitage%NULL%2,         Christopher J%Armitage%NULL%0,         Tova%Tampe%NULL%1,         Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%1,  Kacey C.%Ernst%xref no email%1,  Francisco Fernando%Martins%xref no email%1,  Cicera da Silva%Martins%xref no email%1,  Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,          Maria%Roura%NULL%1,          Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,          Edna%Maradiaga%edjamar3006@yahoo.com%1,          Javier%Roberti%jroberti@iecs.org.ar%1,          Maricela%Casco-Aguilar%marykasco@yahoo.com%1,          Alison F.%Ortez%alison_fabiola@yahoo.es%1,          Juan C.%Avila-Flores%javilaflores3@gmail.com%1,          Gloria%González%marilyntoin@yahoo.com%1,          Carolina%Bustillo%mcbu1502@yahoo.com%0,          Alejandra%Calderón%lilianalecalderon@gmail.com%1,          Harry%Bock%hbockme@hotmail.com%1,          María L.%Cafferata%NULL%1,          Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,          Jackeline%Alger%jackelinealger@gmail.com%1,          Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,           Julie A.%Gazmararian%null%1,           Winifred Wilkins%Thompson%null%1,         Catherine A.%Boyd%null%1,         Julie A.%Gazmararian%null%1,         Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,         Bohme%G.%coreGivesNoEmail%1,         Chiang%H-H%coreGivesNoEmail%4,         Chiang%H-H%coreGivesNoEmail%0,         Chiang%H-H%coreGivesNoEmail%0,         Chiang%H-H%coreGivesNoEmail%0,         Donohoe%J.%coreGivesNoEmail%1,         Hsien-Hsien%Chiang%coreGivesNoEmail%1,         I-Ling%Sue%coreGivesNoEmail%1,         International%Council of Nurses%coreGivesNoEmail%1,         Mei-Bih%Chen%coreGivesNoEmail%1,         Morgan%DL%coreGivesNoEmail%1,         Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,         Dodgson%JE%coreGivesNoEmail%1,         Tarrant%M%coreGivesNoEmail%1,         Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,           Bente%Dahl%null%1,         Elin%Erland%null%1,         Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,         Flowers%Paul%coreGivesNoEmail%1,         Lohm%Davina%coreGivesNoEmail%1,         Stephenson%Niamh%coreGivesNoEmail%1,         Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,          Carlos%Mejia Arbelaez%NULL%1,          Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,           Betty%Sam%null%1,           Florence%Bull%null%1,           Steven Bagie%Pieh%null%1,           Jaki%Lambert%null%1,           Florence%Mgawadere%null%1,           Somasundari%Gopalakrishnan%null%1,           Charles A.%Ameh%null%1,           Nynke%van den Broek%null%1,         Susan%Jones%null%1,         Betty%Sam%null%1,         Florence%Bull%null%1,         Steven Bagie%Pieh%null%1,         Jaki%Lambert%null%1,         Florence%Mgawadere%null%1,         Somasundari%Gopalakrishnan%null%1,         Charles A.%Ameh%null%1,         Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,          Miranda%Davies-Tuck%NULL%1,          Hannah G.%Dahlen%NULL%1,          Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%1,  Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,           Elizabeth W.%Mitchell%null%1,           Jennifer L.%Williams%null%1,           Kelly%Brumbaugh%null%1,           Michelle%Jones-Bell%null%1,           Debra E.%Pinkney%null%1,           Christine M.%Layton%null%1,           Patricia W.%Mersereau%null%1,           Juliette S.%Kendrick%null%1,           Paula Eguino%Medina%null%1,           Lucia Rojas%Smith%null%1,         Molly M.%Lynch%null%1,         Elizabeth W.%Mitchell%null%1,         Jennifer L.%Williams%null%1,         Kelly%Brumbaugh%null%1,         Michelle%Jones-Bell%null%1,         Debra E.%Pinkney%null%1,         Christine M.%Layton%null%1,         Patricia W.%Mersereau%null%1,         Juliette S.%Kendrick%null%1,         Paula Eguino%Medina%null%1,         Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,          Luoqun%Wei%NULL%1,          Suling%Shi%NULL%1,          Dandan%Jiao%NULL%1,          Runluo%Song%NULL%1,          Lili%Ma%NULL%1,          Hongwei%Wang%NULL%1,          Chao%Wang%NULL%1,          Zhaoguo%Wang%NULL%1,          Yanli%You%NULL%1,          Shuhua%Liu%NULL%1,          Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%1,  Maria%Hartley%xref no email%1,  Jyoti%Saha%xref no email%1,  Sarah%Murray%xref no email%1,  Nancy%Glass%xref no email%1,  Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,          Santiago A.%Morales Mesa%NULL%1,          John%Kinsman%NULL%1,          Anna Mia%Ekström%NULL%1,          Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,          Christopher J%Armitage%NULL%2,          Christopher J%Armitage%NULL%0,          Tova%Tampe%NULL%1,          Kimberly%Dienes%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -993,22 +1127,22 @@
         <v>43891</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
         <v>80</v>
@@ -1028,7 +1162,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1057,7 +1191,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1086,7 +1220,7 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1115,7 +1249,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1144,7 +1278,7 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1173,7 +1307,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -1202,7 +1336,7 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1231,7 +1365,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -1260,7 +1394,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1289,7 +1423,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -1312,22 +1446,22 @@
         <v>43230</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="I13" t="s">
         <v>80</v>
@@ -1347,7 +1481,7 @@
         <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1376,7 +1510,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -1399,22 +1533,22 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="I16" t="s">
         <v>80</v>
@@ -1434,7 +1568,7 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -1463,7 +1597,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="232">
   <si>
     <t>Doi</t>
   </si>
@@ -797,6 +797,135 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,          Christopher J%Armitage%NULL%2,          Christopher J%Armitage%NULL%0,          Tova%Tampe%NULL%1,          Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%1,   Kacey C.%Ernst%xref no email%1,   Francisco Fernando%Martins%xref no email%1,   Cicera da Silva%Martins%xref no email%1,   Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,           Maria%Roura%NULL%1,           Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,           Edna%Maradiaga%edjamar3006@yahoo.com%1,           Javier%Roberti%jroberti@iecs.org.ar%1,           Maricela%Casco-Aguilar%marykasco@yahoo.com%1,           Alison F.%Ortez%alison_fabiola@yahoo.es%1,           Juan C.%Avila-Flores%javilaflores3@gmail.com%1,           Gloria%González%marilyntoin@yahoo.com%1,           Carolina%Bustillo%mcbu1502@yahoo.com%0,           Alejandra%Calderón%lilianalecalderon@gmail.com%1,           Harry%Bock%hbockme@hotmail.com%1,           María L.%Cafferata%NULL%1,           Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,           Jackeline%Alger%jackelinealger@gmail.com%1,           Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,            Julie A.%Gazmararian%null%1,            Winifred Wilkins%Thompson%null%1,          Catherine A.%Boyd%null%1,          Julie A.%Gazmararian%null%1,          Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,          Bohme%G.%coreGivesNoEmail%1,          Chiang%H-H%coreGivesNoEmail%4,          Chiang%H-H%coreGivesNoEmail%0,          Chiang%H-H%coreGivesNoEmail%0,          Chiang%H-H%coreGivesNoEmail%0,          Donohoe%J.%coreGivesNoEmail%1,          Hsien-Hsien%Chiang%coreGivesNoEmail%1,          I-Ling%Sue%coreGivesNoEmail%1,          International%Council of Nurses%coreGivesNoEmail%1,          Mei-Bih%Chen%coreGivesNoEmail%1,          Morgan%DL%coreGivesNoEmail%1,          Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,          Dodgson%JE%coreGivesNoEmail%1,          Tarrant%M%coreGivesNoEmail%1,          Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,            Bente%Dahl%null%1,          Elin%Erland%null%1,          Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,          Flowers%Paul%coreGivesNoEmail%1,          Lohm%Davina%coreGivesNoEmail%1,          Stephenson%Niamh%coreGivesNoEmail%1,          Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,           Carlos%Mejia Arbelaez%NULL%1,           Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,            Betty%Sam%null%1,            Florence%Bull%null%1,            Steven Bagie%Pieh%null%1,            Jaki%Lambert%null%1,            Florence%Mgawadere%null%1,            Somasundari%Gopalakrishnan%null%1,            Charles A.%Ameh%null%1,            Nynke%van den Broek%null%1,          Susan%Jones%null%1,          Betty%Sam%null%1,          Florence%Bull%null%1,          Steven Bagie%Pieh%null%1,          Jaki%Lambert%null%1,          Florence%Mgawadere%null%1,          Somasundari%Gopalakrishnan%null%1,          Charles A.%Ameh%null%1,          Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,           Miranda%Davies-Tuck%NULL%1,           Hannah G.%Dahlen%NULL%1,           Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%1,   Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,            Elizabeth W.%Mitchell%null%1,            Jennifer L.%Williams%null%1,            Kelly%Brumbaugh%null%1,            Michelle%Jones-Bell%null%1,            Debra E.%Pinkney%null%1,            Christine M.%Layton%null%1,            Patricia W.%Mersereau%null%1,            Juliette S.%Kendrick%null%1,            Paula Eguino%Medina%null%1,            Lucia Rojas%Smith%null%1,          Molly M.%Lynch%null%1,          Elizabeth W.%Mitchell%null%1,          Jennifer L.%Williams%null%1,          Kelly%Brumbaugh%null%1,          Michelle%Jones-Bell%null%1,          Debra E.%Pinkney%null%1,          Christine M.%Layton%null%1,          Patricia W.%Mersereau%null%1,          Juliette S.%Kendrick%null%1,          Paula Eguino%Medina%null%1,          Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,           Luoqun%Wei%NULL%1,           Suling%Shi%NULL%1,           Dandan%Jiao%NULL%1,           Runluo%Song%NULL%1,           Lili%Ma%NULL%1,           Hongwei%Wang%NULL%1,           Chao%Wang%NULL%1,           Zhaoguo%Wang%NULL%1,           Yanli%You%NULL%1,           Shuhua%Liu%NULL%1,           Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%1,   Maria%Hartley%xref no email%1,   Jyoti%Saha%xref no email%1,   Sarah%Murray%xref no email%1,   Nancy%Glass%xref no email%1,   Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,           Santiago A.%Morales Mesa%NULL%1,           John%Kinsman%NULL%1,           Anna Mia%Ekström%NULL%1,           Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,           Christopher J%Armitage%NULL%2,           Christopher J%Armitage%NULL%0,           Tova%Tampe%NULL%1,           Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%1,    Kacey C.%Ernst%xref no email%1,    Francisco Fernando%Martins%xref no email%1,    Cicera da Silva%Martins%xref no email%1,    Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,            Maria%Roura%NULL%1,            Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,            Edna%Maradiaga%edjamar3006@yahoo.com%1,            Javier%Roberti%jroberti@iecs.org.ar%1,            Maricela%Casco-Aguilar%marykasco@yahoo.com%1,            Alison F.%Ortez%alison_fabiola@yahoo.es%1,            Juan C.%Avila-Flores%javilaflores3@gmail.com%1,            Gloria%González%marilyntoin@yahoo.com%1,            Carolina%Bustillo%mcbu1502@yahoo.com%0,            Alejandra%Calderón%lilianalecalderon@gmail.com%1,            Harry%Bock%hbockme@hotmail.com%1,            María L.%Cafferata%NULL%1,            Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,            Jackeline%Alger%jackelinealger@gmail.com%1,            Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The primary purpose of this qualitative study was to explore the knowledge, attitudes, and behaviors of low-income women considered high priority for receiving the novel influenza A (H1N1) vaccine to improve communication in emergency preparedness and response.
+ Researchers sought to identify the factors that affect this high priority population’s ability to successfully comply with vaccination recommendations.
+ By utilizing an existing communication framework through the special supplemental nutrition program for women, infants, and children (WIC) they were able to document the systems and infrastructure needed to foster constructive responses in a sustainable manner in the future.
+ Six focus group discussions with WIC clients (n = 56) and 10 individual interviews with staff members were conducted at two WIC clinics in Georgia (1 urban and 1 rural).
+ Data were collected after the 2009–2010 influenza season and analyzed using thematic analysis.
+ Knowledge and attitudes regarding H1N1 differed among participants with regard to perceived severity and perceived risk of influenza illness.
+ Participants identified several barriers and motivators to receiving the vaccination, as well as information needs, sources, and information-seeking behaviors.
+ Similarities emerged among both WIC clients and staff members regarding impressions of H1N1 and the vaccine’s use, suggesting that while the information may be provided, it is not effectively understood or accepted.
+ Comprehensive education, policy and planning development regarding pandemic influenza and vaccine acceptance among low-income women is necessary, including improvements in risk communication messages and identifying effective methods to disseminate trusted information to these high priority groups.
+</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%0,  Julie A.%Gazmararian%null%1,  Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,           Bohme%G.%coreGivesNoEmail%1,           Chiang%H-H%coreGivesNoEmail%4,           Chiang%H-H%coreGivesNoEmail%0,           Chiang%H-H%coreGivesNoEmail%0,           Chiang%H-H%coreGivesNoEmail%0,           Donohoe%J.%coreGivesNoEmail%1,           Hsien-Hsien%Chiang%coreGivesNoEmail%1,           I-Ling%Sue%coreGivesNoEmail%1,           International%Council of Nurses%coreGivesNoEmail%1,           Mei-Bih%Chen%coreGivesNoEmail%1,           Morgan%DL%coreGivesNoEmail%1,           Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,           Dodgson%JE%coreGivesNoEmail%1,           Tarrant%M%coreGivesNoEmail%1,           Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,             Bente%Dahl%null%1,           Elin%Erland%null%1,           Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,           Flowers%Paul%coreGivesNoEmail%1,           Lohm%Davina%coreGivesNoEmail%1,           Stephenson%Niamh%coreGivesNoEmail%1,           Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,            Carlos%Mejia Arbelaez%NULL%1,            Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,             Betty%Sam%null%1,             Florence%Bull%null%1,             Steven Bagie%Pieh%null%1,             Jaki%Lambert%null%1,             Florence%Mgawadere%null%1,             Somasundari%Gopalakrishnan%null%1,             Charles A.%Ameh%null%1,             Nynke%van den Broek%null%1,           Susan%Jones%null%1,           Betty%Sam%null%1,           Florence%Bull%null%1,           Steven Bagie%Pieh%null%1,           Jaki%Lambert%null%1,           Florence%Mgawadere%null%1,           Somasundari%Gopalakrishnan%null%1,           Charles A.%Ameh%null%1,           Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,            Miranda%Davies-Tuck%NULL%1,            Hannah G.%Dahlen%NULL%1,            Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%1,    Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The objective of this study was to explore pregnant and recently pregnant women’s perceptions of influenza vaccine and antivirals during the 2009 H1N1 pandemic.
+ We conducted 18 focus groups with pregnant and recently pregnant women in three US cities in September 2009. Participants were segmented into groups by insurance status (no or public insurance vs.
+ private insurance), vaccine attitudes (higher vs.
+ lower likelihood of acceptance of any vaccines, not only influenza vaccines), and parity (first child vs.
+ other children in the home) based on information they provided on the screening questionnaire at the time of recruitment.
+ We found that women are not well informed about influenza vaccinations and antiviral medicine and have significant concerns about taking them during pregnancy.
+ An interest in their infant’s well-being, however, can be strong motivation to adopt preventive recommendations, including vaccination.
+ A woman’s health care provider is a highly trusted source of information about the 2009 H1N1. Pregnant women have unique communication needs for influenza.
+ Messages directing pregnant women to adopt public health recommendations, particularly for vaccination or prophylactic medication should include a detailed description of the benefits or lack of risk to the fetus and the safety of breastfeeding.
+ Additionally, messages should recognize that pregnant women are taught to be selective about taking medication and provide a clear rationale for why the medicine or vaccine is necessary.
+</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%0,  Elizabeth W.%Mitchell%null%1,  Jennifer L.%Williams%null%1,  Kelly%Brumbaugh%null%1,  Michelle%Jones-Bell%null%1,  Debra E.%Pinkney%null%1,  Christine M.%Layton%null%1,  Patricia W.%Mersereau%null%1,  Juliette S.%Kendrick%null%1,  Paula Eguino%Medina%null%1,  Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,            Luoqun%Wei%NULL%1,            Suling%Shi%NULL%1,            Dandan%Jiao%NULL%1,            Runluo%Song%NULL%1,            Lili%Ma%NULL%1,            Hongwei%Wang%NULL%1,            Chao%Wang%NULL%1,            Zhaoguo%Wang%NULL%1,            Yanli%You%NULL%1,            Shuhua%Liu%NULL%1,            Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%1,    Maria%Hartley%xref no email%1,    Jyoti%Saha%xref no email%1,    Sarah%Murray%xref no email%1,    Nancy%Glass%xref no email%1,    Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,            Santiago A.%Morales Mesa%NULL%1,            John%Kinsman%NULL%1,            Anna Mia%Ekström%NULL%1,            Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,            Christopher J%Armitage%NULL%2,            Christopher J%Armitage%NULL%0,            Tova%Tampe%NULL%1,            Kimberly%Dienes%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1262,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1162,7 +1291,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1191,7 +1320,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1217,10 +1346,10 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1249,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1278,7 +1407,7 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1307,7 +1436,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -1336,7 +1465,7 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1365,7 +1494,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -1394,7 +1523,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1423,7 +1552,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -1452,7 +1581,7 @@
         <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1478,10 +1607,10 @@
         <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1510,7 +1639,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -1539,7 +1668,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1568,7 +1697,7 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -1597,7 +1726,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="268">
   <si>
     <t>Doi</t>
   </si>
@@ -926,6 +926,152 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,            Christopher J%Armitage%NULL%2,            Christopher J%Armitage%NULL%0,            Tova%Tampe%NULL%1,            Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%1,     Kacey C.%Ernst%xref no email%1,     Francisco Fernando%Martins%xref no email%1,     Cicera da Silva%Martins%xref no email%1,     Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The public health response to Zika outbreak has mostly focused on epidemiological surveillance, vector control, and individual level preventative measures.
+ This qualitative study employs a social-ecological framework to examine how macro (historical, legislative, political, socio-economic factors), meso (sources of information, social support, social mobilization) and micro level factors (individual actions, behavioral changes) interacted to influence the response and behavior of women with respect to Zika in different contexts.
+Methods
+A qualitative study was carried out.
+ Women were recruited through the snowball sampling technique from various locations in Brazil, Puerto Rico, and the United States.
+ They were of different nationalities and ethnicities.
+ Data were collected through semi-structured interviews.
+ The data transcripts were analyzed using thematic analysis.
+Results
+Women in this study deemed the information provided as insufficient, which led them to actively reach out and access a variety of media sources.
+ Social networks played a vital role in sharing information but also resulted in the spread of hoaxes or rumors.
+ Participants in our research perceived socio-economic inequities but focused on how to remedy their microenvironments.
+ They did not engage in major social activities.
+ Lack of trust in governments placed women in vulnerable situations by preventing them to follow the guidance of health authorities.
+ These impacts were also a result of the response tactics of health and government administrations in their failed attempts to ensure the well-being of their countries’ populations.
+Conclusions
+Our findings call for public health interventions that go beyond individual level behavioral change campaigns, to more comprehensively address the broader meso and macro level factors that influence women’ willingness and possibility to protect themselves.
+</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,             Maria%Roura%NULL%1,             Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Zika virus (ZIKV) infection during pregnancy has severe consequences on the new-born.
+ The World Health Organization declared the Zika outbreak to be a Public Health Emergency of International Concern (PHEIC) in 2016. Health facilities in the regions most affected by Zika lacked the capacity to respond to the increased demand for contraception.
+ The objectives were to explore healthcare users’ perceptions regarding contraception, Zika prevention during pregnancy and post-abortion care (PAC) services in the context of a Zika outbreak in Tegucigalpa, Honduras, and to follow these services over time.
+Methods
+This study was part of a broader implementation research study.
+ We used qualitative research consistent with grounded theory approach.
+ Semi-structured interviews and focus groups were performed with women and their partners who used contraceptive services or received PAC services.
+ Data were collected in two stages from December 2017 to July 2018. Themes explored included contraception, Zika and PAC services.
+Results
+Participants had positive attitude towards the use of contraceptive methods and demanded more information on safety, efficacy and on side effects.
+ Health care services were inconsistent in the provision of information on Zika and contraception services.
+ ZIKV vector transmission was known but fewer participants were aware of risk of sexual transmission of Zika.
+ Barriers to access healthcare services included contraceptive and PAC services included distance to healthcare facilities, disorganized admission process, long waiting times and out-of-pocket expenditure to purchase medicines.
+ Furthermore, poor quality, mistreatment and abuse of women seeking PAC was prevalent.
+ Some positive changes were noted over time, such as improvements in infrastructure including improved privacy and cleanliness, removal of fees, requisite to bring clean water to hospital.
+Conclusions
+Our results highlight the challenges and areas for improvement in policy and practice related to contraceptive services and PAC in the context of ZIKV infection.
+ Public policies to prevent epidemics should focus more on providing proper sanitation; removing barriers to access and use of effective contraception as human rights priority.
+ Zika epidemic has highlighted weaknesses in health systems that obstruct access to and use of sexual and reproductive health services.
+</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,             Edna%Maradiaga%edjamar3006@yahoo.com%1,             Javier%Roberti%jroberti@iecs.org.ar%1,             Maricela%Casco-Aguilar%marykasco@yahoo.com%1,             Alison F.%Ortez%alison_fabiola@yahoo.es%1,             Juan C.%Avila-Flores%javilaflores3@gmail.com%1,             Gloria%González%marilyntoin@yahoo.com%1,             Carolina%Bustillo%mcbu1502@yahoo.com%0,             Alejandra%Calderón%lilianalecalderon@gmail.com%1,             Harry%Bock%hbockme@hotmail.com%1,             María L.%Cafferata%NULL%1,             Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,             Jackeline%Alger%jackelinealger@gmail.com%1,             Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,   Julie A.%Gazmararian%null%1,   Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,            Bohme%G.%coreGivesNoEmail%1,            Chiang%H-H%coreGivesNoEmail%4,            Chiang%H-H%coreGivesNoEmail%0,            Chiang%H-H%coreGivesNoEmail%0,            Chiang%H-H%coreGivesNoEmail%0,            Donohoe%J.%coreGivesNoEmail%1,            Hsien-Hsien%Chiang%coreGivesNoEmail%1,            I-Ling%Sue%coreGivesNoEmail%1,            International%Council of Nurses%coreGivesNoEmail%1,            Mei-Bih%Chen%coreGivesNoEmail%1,            Morgan%DL%coreGivesNoEmail%1,            Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,            Dodgson%JE%coreGivesNoEmail%1,            Tarrant%M%coreGivesNoEmail%1,            Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,              Bente%Dahl%null%1,            Elin%Erland%null%1,            Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,            Flowers%Paul%coreGivesNoEmail%1,            Lohm%Davina%coreGivesNoEmail%1,            Stephenson%Niamh%coreGivesNoEmail%1,            Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,             Carlos%Mejia Arbelaez%NULL%1,             Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,              Betty%Sam%null%1,              Florence%Bull%null%1,              Steven Bagie%Pieh%null%1,              Jaki%Lambert%null%1,              Florence%Mgawadere%null%1,              Somasundari%Gopalakrishnan%null%1,              Charles A.%Ameh%null%1,              Nynke%van den Broek%null%1,            Susan%Jones%null%1,            Betty%Sam%null%1,            Florence%Bull%null%1,            Steven Bagie%Pieh%null%1,            Jaki%Lambert%null%1,            Florence%Mgawadere%null%1,            Somasundari%Gopalakrishnan%null%1,            Charles A.%Ameh%null%1,            Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,             Miranda%Davies-Tuck%NULL%1,             Hannah G.%Dahlen%NULL%1,             Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%1,     Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,   Elizabeth W.%Mitchell%null%1,   Jennifer L.%Williams%null%1,   Kelly%Brumbaugh%null%1,   Michelle%Jones-Bell%null%1,   Debra E.%Pinkney%null%1,   Christine M.%Layton%null%1,   Patricia W.%Mersereau%null%1,   Juliette S.%Kendrick%null%1,   Paula Eguino%Medina%null%1,   Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,             Luoqun%Wei%NULL%1,             Suling%Shi%NULL%1,             Dandan%Jiao%NULL%1,             Runluo%Song%NULL%1,             Lili%Ma%NULL%1,             Hongwei%Wang%NULL%1,             Chao%Wang%NULL%1,             Zhaoguo%Wang%NULL%1,             Yanli%You%NULL%1,             Shuhua%Liu%NULL%1,             Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%1,     Maria%Hartley%xref no email%1,     Jyoti%Saha%xref no email%1,     Sarah%Murray%xref no email%1,     Nancy%Glass%xref no email%1,     Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,             Santiago A.%Morales Mesa%NULL%1,             John%Kinsman%NULL%1,             Anna Mia%Ekström%NULL%1,             Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,             Christopher J%Armitage%NULL%2,             Christopher J%Armitage%NULL%0,             Tova%Tampe%NULL%1,             Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%1,      Kacey C.%Ernst%xref no email%1,      Francisco Fernando%Martins%xref no email%1,      Cicera da Silva%Martins%xref no email%1,      Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,              Maria%Roura%NULL%1,              Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,              Edna%Maradiaga%edjamar3006@yahoo.com%1,              Javier%Roberti%jroberti@iecs.org.ar%1,              Maricela%Casco-Aguilar%marykasco@yahoo.com%1,              Alison F.%Ortez%alison_fabiola@yahoo.es%1,              Juan C.%Avila-Flores%javilaflores3@gmail.com%1,              Gloria%González%marilyntoin@yahoo.com%1,              Carolina%Bustillo%mcbu1502@yahoo.com%0,              Alejandra%Calderón%lilianalecalderon@gmail.com%1,              Harry%Bock%hbockme@hotmail.com%1,              María L.%Cafferata%NULL%1,              Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,              Jackeline%Alger%jackelinealger@gmail.com%1,              Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,    Julie A.%Gazmararian%null%1,    Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,             Bohme%G.%coreGivesNoEmail%1,             Chiang%H-H%coreGivesNoEmail%4,             Chiang%H-H%coreGivesNoEmail%0,             Chiang%H-H%coreGivesNoEmail%0,             Chiang%H-H%coreGivesNoEmail%0,             Donohoe%J.%coreGivesNoEmail%1,             Hsien-Hsien%Chiang%coreGivesNoEmail%1,             I-Ling%Sue%coreGivesNoEmail%1,             International%Council of Nurses%coreGivesNoEmail%1,             Mei-Bih%Chen%coreGivesNoEmail%1,             Morgan%DL%coreGivesNoEmail%1,             Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,             Dodgson%JE%coreGivesNoEmail%1,             Tarrant%M%coreGivesNoEmail%1,             Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,               Bente%Dahl%null%1,             Elin%Erland%null%1,             Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,             Flowers%Paul%coreGivesNoEmail%1,             Lohm%Davina%coreGivesNoEmail%1,             Stephenson%Niamh%coreGivesNoEmail%1,             Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,              Carlos%Mejia Arbelaez%NULL%1,              Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,               Betty%Sam%null%1,               Florence%Bull%null%1,               Steven Bagie%Pieh%null%1,               Jaki%Lambert%null%1,               Florence%Mgawadere%null%1,               Somasundari%Gopalakrishnan%null%1,               Charles A.%Ameh%null%1,               Nynke%van den Broek%null%1,             Susan%Jones%null%1,             Betty%Sam%null%1,             Florence%Bull%null%1,             Steven Bagie%Pieh%null%1,             Jaki%Lambert%null%1,             Florence%Mgawadere%null%1,             Somasundari%Gopalakrishnan%null%1,             Charles A.%Ameh%null%1,             Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,              Miranda%Davies-Tuck%NULL%1,              Hannah G.%Dahlen%NULL%1,              Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%1,      Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,    Elizabeth W.%Mitchell%null%1,    Jennifer L.%Williams%null%1,    Kelly%Brumbaugh%null%1,    Michelle%Jones-Bell%null%1,    Debra E.%Pinkney%null%1,    Christine M.%Layton%null%1,    Patricia W.%Mersereau%null%1,    Juliette S.%Kendrick%null%1,    Paula Eguino%Medina%null%1,    Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,              Luoqun%Wei%NULL%1,              Suling%Shi%NULL%1,              Dandan%Jiao%NULL%1,              Runluo%Song%NULL%1,              Lili%Ma%NULL%1,              Hongwei%Wang%NULL%1,              Chao%Wang%NULL%1,              Zhaoguo%Wang%NULL%1,              Yanli%You%NULL%1,              Shuhua%Liu%NULL%1,              Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%1,      Maria%Hartley%xref no email%1,      Jyoti%Saha%xref no email%1,      Sarah%Murray%xref no email%1,      Nancy%Glass%xref no email%1,      Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,              Santiago A.%Morales Mesa%NULL%1,              John%Kinsman%NULL%1,              Anna Mia%Ekström%NULL%1,              Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,              Christopher J%Armitage%NULL%2,              Christopher J%Armitage%NULL%0,              Tova%Tampe%NULL%1,              Kimberly%Dienes%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1408,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1288,10 +1434,10 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1317,10 +1463,10 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1349,7 +1495,7 @@
         <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1378,7 +1524,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1407,7 +1553,7 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1436,7 +1582,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -1465,7 +1611,7 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1494,7 +1640,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -1523,7 +1669,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1552,7 +1698,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -1581,7 +1727,7 @@
         <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1610,7 +1756,7 @@
         <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1639,7 +1785,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -1668,7 +1814,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1697,7 +1843,7 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -1726,7 +1872,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="285">
   <si>
     <t>Doi</t>
   </si>
@@ -1072,6 +1072,57 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,              Christopher J%Armitage%NULL%2,              Christopher J%Armitage%NULL%0,              Tova%Tampe%NULL%1,              Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%1,       Kacey C.%Ernst%xref no email%1,       Francisco Fernando%Martins%xref no email%1,       Cicera da Silva%Martins%xref no email%1,       Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,               Maria%Roura%NULL%1,               Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,               Edna%Maradiaga%edjamar3006@yahoo.com%1,               Javier%Roberti%jroberti@iecs.org.ar%1,               Maricela%Casco-Aguilar%marykasco@yahoo.com%1,               Alison F.%Ortez%alison_fabiola@yahoo.es%1,               Juan C.%Avila-Flores%javilaflores3@gmail.com%1,               Gloria%González%marilyntoin@yahoo.com%1,               Carolina%Bustillo%mcbu1502@yahoo.com%0,               Alejandra%Calderón%lilianalecalderon@gmail.com%1,               Harry%Bock%hbockme@hotmail.com%1,               María L.%Cafferata%NULL%1,               Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,               Jackeline%Alger%jackelinealger@gmail.com%1,               Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,     Julie A.%Gazmararian%null%1,     Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,              Bohme%G.%coreGivesNoEmail%1,              Chiang%H-H%coreGivesNoEmail%4,              Chiang%H-H%coreGivesNoEmail%0,              Chiang%H-H%coreGivesNoEmail%0,              Chiang%H-H%coreGivesNoEmail%0,              Donohoe%J.%coreGivesNoEmail%1,              Hsien-Hsien%Chiang%coreGivesNoEmail%1,              I-Ling%Sue%coreGivesNoEmail%1,              International%Council of Nurses%coreGivesNoEmail%1,              Mei-Bih%Chen%coreGivesNoEmail%1,              Morgan%DL%coreGivesNoEmail%1,              Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,              Dodgson%JE%coreGivesNoEmail%1,              Tarrant%M%coreGivesNoEmail%1,              Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                Bente%Dahl%null%1,              Elin%Erland%null%1,              Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,              Flowers%Paul%coreGivesNoEmail%1,              Lohm%Davina%coreGivesNoEmail%1,              Stephenson%Niamh%coreGivesNoEmail%1,              Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,               Carlos%Mejia Arbelaez%NULL%1,               Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                Betty%Sam%null%1,                Florence%Bull%null%1,                Steven Bagie%Pieh%null%1,                Jaki%Lambert%null%1,                Florence%Mgawadere%null%1,                Somasundari%Gopalakrishnan%null%1,                Charles A.%Ameh%null%1,                Nynke%van den Broek%null%1,              Susan%Jones%null%1,              Betty%Sam%null%1,              Florence%Bull%null%1,              Steven Bagie%Pieh%null%1,              Jaki%Lambert%null%1,              Florence%Mgawadere%null%1,              Somasundari%Gopalakrishnan%null%1,              Charles A.%Ameh%null%1,              Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,               Miranda%Davies-Tuck%NULL%1,               Hannah G.%Dahlen%NULL%1,               Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%1,       Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,     Elizabeth W.%Mitchell%null%1,     Jennifer L.%Williams%null%1,     Kelly%Brumbaugh%null%1,     Michelle%Jones-Bell%null%1,     Debra E.%Pinkney%null%1,     Christine M.%Layton%null%1,     Patricia W.%Mersereau%null%1,     Juliette S.%Kendrick%null%1,     Paula Eguino%Medina%null%1,     Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,               Luoqun%Wei%NULL%1,               Suling%Shi%NULL%1,               Dandan%Jiao%NULL%1,               Runluo%Song%NULL%1,               Lili%Ma%NULL%1,               Hongwei%Wang%NULL%1,               Chao%Wang%NULL%1,               Zhaoguo%Wang%NULL%1,               Yanli%You%NULL%1,               Shuhua%Liu%NULL%1,               Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%1,       Maria%Hartley%xref no email%1,       Jyoti%Saha%xref no email%1,       Sarah%Murray%xref no email%1,       Nancy%Glass%xref no email%1,       Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,               Santiago A.%Morales Mesa%NULL%1,               John%Kinsman%NULL%1,               Anna Mia%Ekström%NULL%1,               Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,               Christopher J%Armitage%NULL%2,               Christopher J%Armitage%NULL%0,               Tova%Tampe%NULL%1,               Kimberly%Dienes%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1459,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1437,7 +1488,7 @@
         <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1466,7 +1517,7 @@
         <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1495,7 +1546,7 @@
         <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1524,7 +1575,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1553,7 +1604,7 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1582,7 +1633,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -1611,7 +1662,7 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1640,7 +1691,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -1669,7 +1720,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1698,7 +1749,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -1727,7 +1778,7 @@
         <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1756,7 +1807,7 @@
         <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1785,7 +1836,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -1814,7 +1865,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1843,7 +1894,7 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -1872,7 +1923,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="302">
   <si>
     <t>Doi</t>
   </si>
@@ -1123,6 +1123,57 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,               Christopher J%Armitage%NULL%2,               Christopher J%Armitage%NULL%0,               Tova%Tampe%NULL%1,               Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%1,        Kacey C.%Ernst%xref no email%1,        Francisco Fernando%Martins%xref no email%1,        Cicera da Silva%Martins%xref no email%1,        Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                Maria%Roura%NULL%1,                Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                Edna%Maradiaga%edjamar3006@yahoo.com%1,                Javier%Roberti%jroberti@iecs.org.ar%1,                Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                Alison F.%Ortez%alison_fabiola@yahoo.es%1,                Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                Gloria%González%marilyntoin@yahoo.com%1,                Carolina%Bustillo%mcbu1502@yahoo.com%0,                Alejandra%Calderón%lilianalecalderon@gmail.com%1,                Harry%Bock%hbockme@hotmail.com%1,                María L.%Cafferata%NULL%1,                Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                Jackeline%Alger%jackelinealger@gmail.com%1,                Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,      Julie A.%Gazmararian%null%1,      Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,               Bohme%G.%coreGivesNoEmail%1,               Chiang%H-H%coreGivesNoEmail%4,               Chiang%H-H%coreGivesNoEmail%0,               Chiang%H-H%coreGivesNoEmail%0,               Chiang%H-H%coreGivesNoEmail%0,               Donohoe%J.%coreGivesNoEmail%1,               Hsien-Hsien%Chiang%coreGivesNoEmail%1,               I-Ling%Sue%coreGivesNoEmail%1,               International%Council of Nurses%coreGivesNoEmail%1,               Mei-Bih%Chen%coreGivesNoEmail%1,               Morgan%DL%coreGivesNoEmail%1,               Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,               Dodgson%JE%coreGivesNoEmail%1,               Tarrant%M%coreGivesNoEmail%1,               Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                 Bente%Dahl%null%1,               Elin%Erland%null%1,               Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,               Flowers%Paul%coreGivesNoEmail%1,               Lohm%Davina%coreGivesNoEmail%1,               Stephenson%Niamh%coreGivesNoEmail%1,               Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                Carlos%Mejia Arbelaez%NULL%1,                Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                 Betty%Sam%null%1,                 Florence%Bull%null%1,                 Steven Bagie%Pieh%null%1,                 Jaki%Lambert%null%1,                 Florence%Mgawadere%null%1,                 Somasundari%Gopalakrishnan%null%1,                 Charles A.%Ameh%null%1,                 Nynke%van den Broek%null%1,               Susan%Jones%null%1,               Betty%Sam%null%1,               Florence%Bull%null%1,               Steven Bagie%Pieh%null%1,               Jaki%Lambert%null%1,               Florence%Mgawadere%null%1,               Somasundari%Gopalakrishnan%null%1,               Charles A.%Ameh%null%1,               Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                Miranda%Davies-Tuck%NULL%1,                Hannah G.%Dahlen%NULL%1,                Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%1,        Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,      Elizabeth W.%Mitchell%null%1,      Jennifer L.%Williams%null%1,      Kelly%Brumbaugh%null%1,      Michelle%Jones-Bell%null%1,      Debra E.%Pinkney%null%1,      Christine M.%Layton%null%1,      Patricia W.%Mersereau%null%1,      Juliette S.%Kendrick%null%1,      Paula Eguino%Medina%null%1,      Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                Luoqun%Wei%NULL%1,                Suling%Shi%NULL%1,                Dandan%Jiao%NULL%1,                Runluo%Song%NULL%1,                Lili%Ma%NULL%1,                Hongwei%Wang%NULL%1,                Chao%Wang%NULL%1,                Zhaoguo%Wang%NULL%1,                Yanli%You%NULL%1,                Shuhua%Liu%NULL%1,                Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%1,        Maria%Hartley%xref no email%1,        Jyoti%Saha%xref no email%1,        Sarah%Murray%xref no email%1,        Nancy%Glass%xref no email%1,        Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                Santiago A.%Morales Mesa%NULL%1,                John%Kinsman%NULL%1,                Anna Mia%Ekström%NULL%1,                Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                Christopher J%Armitage%NULL%2,                Christopher J%Armitage%NULL%0,                Tova%Tampe%NULL%1,                Kimberly%Dienes%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1510,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1488,7 +1539,7 @@
         <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1517,7 +1568,7 @@
         <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1546,7 +1597,7 @@
         <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1575,7 +1626,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1604,7 +1655,7 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1633,7 +1684,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -1662,7 +1713,7 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1691,7 +1742,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -1720,7 +1771,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1749,7 +1800,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -1778,7 +1829,7 @@
         <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1807,7 +1858,7 @@
         <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1836,7 +1887,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -1865,7 +1916,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1894,7 +1945,7 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -1923,7 +1974,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="336">
   <si>
     <t>Doi</t>
   </si>
@@ -1174,6 +1174,108 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,                Christopher J%Armitage%NULL%2,                Christopher J%Armitage%NULL%0,                Tova%Tampe%NULL%1,                Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%1,         Kacey C.%Ernst%xref no email%1,         Francisco Fernando%Martins%xref no email%1,         Cicera da Silva%Martins%xref no email%1,         Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                 Maria%Roura%NULL%1,                 Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                 Edna%Maradiaga%edjamar3006@yahoo.com%1,                 Javier%Roberti%jroberti@iecs.org.ar%1,                 Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                 Alison F.%Ortez%alison_fabiola@yahoo.es%1,                 Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                 Gloria%González%marilyntoin@yahoo.com%1,                 Carolina%Bustillo%mcbu1502@yahoo.com%0,                 Alejandra%Calderón%lilianalecalderon@gmail.com%1,                 Harry%Bock%hbockme@hotmail.com%1,                 María L.%Cafferata%NULL%1,                 Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                 Jackeline%Alger%jackelinealger@gmail.com%1,                 Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,       Julie A.%Gazmararian%null%1,       Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,                Bohme%G.%coreGivesNoEmail%1,                Chiang%H-H%coreGivesNoEmail%4,                Chiang%H-H%coreGivesNoEmail%0,                Chiang%H-H%coreGivesNoEmail%0,                Chiang%H-H%coreGivesNoEmail%0,                Donohoe%J.%coreGivesNoEmail%1,                Hsien-Hsien%Chiang%coreGivesNoEmail%1,                I-Ling%Sue%coreGivesNoEmail%1,                International%Council of Nurses%coreGivesNoEmail%1,                Mei-Bih%Chen%coreGivesNoEmail%1,                Morgan%DL%coreGivesNoEmail%1,                Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,                Dodgson%JE%coreGivesNoEmail%1,                Tarrant%M%coreGivesNoEmail%1,                Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                  Bente%Dahl%null%1,                Elin%Erland%null%1,                Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,                Flowers%Paul%coreGivesNoEmail%1,                Lohm%Davina%coreGivesNoEmail%1,                Stephenson%Niamh%coreGivesNoEmail%1,                Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                 Carlos%Mejia Arbelaez%NULL%1,                 Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                  Betty%Sam%null%1,                  Florence%Bull%null%1,                  Steven Bagie%Pieh%null%1,                  Jaki%Lambert%null%1,                  Florence%Mgawadere%null%1,                  Somasundari%Gopalakrishnan%null%1,                  Charles A.%Ameh%null%1,                  Nynke%van den Broek%null%1,                Susan%Jones%null%1,                Betty%Sam%null%1,                Florence%Bull%null%1,                Steven Bagie%Pieh%null%1,                Jaki%Lambert%null%1,                Florence%Mgawadere%null%1,                Somasundari%Gopalakrishnan%null%1,                Charles A.%Ameh%null%1,                Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                 Miranda%Davies-Tuck%NULL%1,                 Hannah G.%Dahlen%NULL%1,                 Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%1,         Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,       Elizabeth W.%Mitchell%null%1,       Jennifer L.%Williams%null%1,       Kelly%Brumbaugh%null%1,       Michelle%Jones-Bell%null%1,       Debra E.%Pinkney%null%1,       Christine M.%Layton%null%1,       Patricia W.%Mersereau%null%1,       Juliette S.%Kendrick%null%1,       Paula Eguino%Medina%null%1,       Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                 Luoqun%Wei%NULL%1,                 Suling%Shi%NULL%1,                 Dandan%Jiao%NULL%1,                 Runluo%Song%NULL%1,                 Lili%Ma%NULL%1,                 Hongwei%Wang%NULL%1,                 Chao%Wang%NULL%1,                 Zhaoguo%Wang%NULL%1,                 Yanli%You%NULL%1,                 Shuhua%Liu%NULL%1,                 Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%1,         Maria%Hartley%xref no email%1,         Jyoti%Saha%xref no email%1,         Sarah%Murray%xref no email%1,         Nancy%Glass%xref no email%1,         Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                 Santiago A.%Morales Mesa%NULL%1,                 John%Kinsman%NULL%1,                 Anna Mia%Ekström%NULL%1,                 Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                 Christopher J%Armitage%NULL%2,                 Christopher J%Armitage%NULL%0,                 Tova%Tampe%NULL%1,                 Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%1,          Kacey C.%Ernst%xref no email%1,          Francisco Fernando%Martins%xref no email%1,          Cicera da Silva%Martins%xref no email%1,          Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                  Maria%Roura%NULL%1,                  Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                  Edna%Maradiaga%edjamar3006@yahoo.com%1,                  Javier%Roberti%jroberti@iecs.org.ar%1,                  Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                  Alison F.%Ortez%alison_fabiola@yahoo.es%1,                  Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                  Gloria%González%marilyntoin@yahoo.com%1,                  Carolina%Bustillo%mcbu1502@yahoo.com%0,                  Alejandra%Calderón%lilianalecalderon@gmail.com%1,                  Harry%Bock%hbockme@hotmail.com%1,                  María L.%Cafferata%NULL%1,                  Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                  Jackeline%Alger%jackelinealger@gmail.com%1,                  Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,        Julie A.%Gazmararian%null%1,        Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,                 Bohme%G.%coreGivesNoEmail%1,                 Chiang%H-H%coreGivesNoEmail%4,                 Chiang%H-H%coreGivesNoEmail%0,                 Chiang%H-H%coreGivesNoEmail%0,                 Chiang%H-H%coreGivesNoEmail%0,                 Donohoe%J.%coreGivesNoEmail%1,                 Hsien-Hsien%Chiang%coreGivesNoEmail%1,                 I-Ling%Sue%coreGivesNoEmail%1,                 International%Council of Nurses%coreGivesNoEmail%1,                 Mei-Bih%Chen%coreGivesNoEmail%1,                 Morgan%DL%coreGivesNoEmail%1,                 Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,                 Dodgson%JE%coreGivesNoEmail%1,                 Tarrant%M%coreGivesNoEmail%1,                 Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                   Bente%Dahl%null%1,                 Elin%Erland%null%1,                 Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,                 Flowers%Paul%coreGivesNoEmail%1,                 Lohm%Davina%coreGivesNoEmail%1,                 Stephenson%Niamh%coreGivesNoEmail%1,                 Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                  Carlos%Mejia Arbelaez%NULL%1,                  Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                   Betty%Sam%null%1,                   Florence%Bull%null%1,                   Steven Bagie%Pieh%null%1,                   Jaki%Lambert%null%1,                   Florence%Mgawadere%null%1,                   Somasundari%Gopalakrishnan%null%1,                   Charles A.%Ameh%null%1,                   Nynke%van den Broek%null%1,                 Susan%Jones%null%1,                 Betty%Sam%null%1,                 Florence%Bull%null%1,                 Steven Bagie%Pieh%null%1,                 Jaki%Lambert%null%1,                 Florence%Mgawadere%null%1,                 Somasundari%Gopalakrishnan%null%1,                 Charles A.%Ameh%null%1,                 Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                  Miranda%Davies-Tuck%NULL%1,                  Hannah G.%Dahlen%NULL%1,                  Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%1,          Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,        Elizabeth W.%Mitchell%null%1,        Jennifer L.%Williams%null%1,        Kelly%Brumbaugh%null%1,        Michelle%Jones-Bell%null%1,        Debra E.%Pinkney%null%1,        Christine M.%Layton%null%1,        Patricia W.%Mersereau%null%1,        Juliette S.%Kendrick%null%1,        Paula Eguino%Medina%null%1,        Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                  Luoqun%Wei%NULL%1,                  Suling%Shi%NULL%1,                  Dandan%Jiao%NULL%1,                  Runluo%Song%NULL%1,                  Lili%Ma%NULL%1,                  Hongwei%Wang%NULL%1,                  Chao%Wang%NULL%1,                  Zhaoguo%Wang%NULL%1,                  Yanli%You%NULL%1,                  Shuhua%Liu%NULL%1,                  Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%1,          Maria%Hartley%xref no email%1,          Jyoti%Saha%xref no email%1,          Sarah%Murray%xref no email%1,          Nancy%Glass%xref no email%1,          Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                  Santiago A.%Morales Mesa%NULL%1,                  John%Kinsman%NULL%1,                  Anna Mia%Ekström%NULL%1,                  Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                  Christopher J%Armitage%NULL%2,                  Christopher J%Armitage%NULL%0,                  Tova%Tampe%NULL%1,                  Kimberly%Dienes%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1539,7 +1641,7 @@
         <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1568,7 +1670,7 @@
         <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1597,7 +1699,7 @@
         <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1626,7 +1728,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1655,7 +1757,7 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1684,7 +1786,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -1713,7 +1815,7 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1742,7 +1844,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -1771,7 +1873,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1800,7 +1902,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -1829,7 +1931,7 @@
         <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1858,7 +1960,7 @@
         <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1887,7 +1989,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -1916,7 +2018,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1945,7 +2047,7 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -1974,7 +2076,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="353">
   <si>
     <t>Doi</t>
   </si>
@@ -1276,6 +1276,57 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,                  Christopher J%Armitage%NULL%2,                  Christopher J%Armitage%NULL%0,                  Tova%Tampe%NULL%1,                  Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%1,           Kacey C.%Ernst%xref no email%1,           Francisco Fernando%Martins%xref no email%1,           Cicera da Silva%Martins%xref no email%1,           Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                   Maria%Roura%NULL%1,                   Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                   Edna%Maradiaga%edjamar3006@yahoo.com%1,                   Javier%Roberti%jroberti@iecs.org.ar%1,                   Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                   Alison F.%Ortez%alison_fabiola@yahoo.es%1,                   Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                   Gloria%González%marilyntoin@yahoo.com%1,                   Carolina%Bustillo%mcbu1502@yahoo.com%0,                   Alejandra%Calderón%lilianalecalderon@gmail.com%1,                   Harry%Bock%hbockme@hotmail.com%1,                   María L.%Cafferata%NULL%1,                   Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                   Jackeline%Alger%jackelinealger@gmail.com%1,                   Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,         Julie A.%Gazmararian%null%1,         Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,                  Bohme%G.%coreGivesNoEmail%1,                  Chiang%H-H%coreGivesNoEmail%4,                  Chiang%H-H%coreGivesNoEmail%0,                  Chiang%H-H%coreGivesNoEmail%0,                  Chiang%H-H%coreGivesNoEmail%0,                  Donohoe%J.%coreGivesNoEmail%1,                  Hsien-Hsien%Chiang%coreGivesNoEmail%1,                  I-Ling%Sue%coreGivesNoEmail%1,                  International%Council of Nurses%coreGivesNoEmail%1,                  Mei-Bih%Chen%coreGivesNoEmail%1,                  Morgan%DL%coreGivesNoEmail%1,                  Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,                  Dodgson%JE%coreGivesNoEmail%1,                  Tarrant%M%coreGivesNoEmail%1,                  Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                    Bente%Dahl%null%1,                  Elin%Erland%null%1,                  Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,                  Flowers%Paul%coreGivesNoEmail%1,                  Lohm%Davina%coreGivesNoEmail%1,                  Stephenson%Niamh%coreGivesNoEmail%1,                  Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                   Carlos%Mejia Arbelaez%NULL%1,                   Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                    Betty%Sam%null%1,                    Florence%Bull%null%1,                    Steven Bagie%Pieh%null%1,                    Jaki%Lambert%null%1,                    Florence%Mgawadere%null%1,                    Somasundari%Gopalakrishnan%null%1,                    Charles A.%Ameh%null%1,                    Nynke%van den Broek%null%1,                  Susan%Jones%null%1,                  Betty%Sam%null%1,                  Florence%Bull%null%1,                  Steven Bagie%Pieh%null%1,                  Jaki%Lambert%null%1,                  Florence%Mgawadere%null%1,                  Somasundari%Gopalakrishnan%null%1,                  Charles A.%Ameh%null%1,                  Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                   Miranda%Davies-Tuck%NULL%1,                   Hannah G.%Dahlen%NULL%1,                   Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%1,           Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,         Elizabeth W.%Mitchell%null%1,         Jennifer L.%Williams%null%1,         Kelly%Brumbaugh%null%1,         Michelle%Jones-Bell%null%1,         Debra E.%Pinkney%null%1,         Christine M.%Layton%null%1,         Patricia W.%Mersereau%null%1,         Juliette S.%Kendrick%null%1,         Paula Eguino%Medina%null%1,         Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                   Luoqun%Wei%NULL%1,                   Suling%Shi%NULL%1,                   Dandan%Jiao%NULL%1,                   Runluo%Song%NULL%1,                   Lili%Ma%NULL%1,                   Hongwei%Wang%NULL%1,                   Chao%Wang%NULL%1,                   Zhaoguo%Wang%NULL%1,                   Yanli%You%NULL%1,                   Shuhua%Liu%NULL%1,                   Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%1,           Maria%Hartley%xref no email%1,           Jyoti%Saha%xref no email%1,           Sarah%Murray%xref no email%1,           Nancy%Glass%xref no email%1,           Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                   Santiago A.%Morales Mesa%NULL%1,                   John%Kinsman%NULL%1,                   Anna Mia%Ekström%NULL%1,                   Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                   Christopher J%Armitage%NULL%2,                   Christopher J%Armitage%NULL%0,                   Tova%Tampe%NULL%1,                   Kimberly%Dienes%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1663,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1641,7 +1692,7 @@
         <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1670,7 +1721,7 @@
         <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1699,7 +1750,7 @@
         <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1728,7 +1779,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1757,7 +1808,7 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1786,7 +1837,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -1815,7 +1866,7 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1844,7 +1895,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -1873,7 +1924,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1902,7 +1953,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -1931,7 +1982,7 @@
         <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1960,7 +2011,7 @@
         <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1989,7 +2040,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -2018,7 +2069,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2047,7 +2098,7 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -2076,7 +2127,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="374">
   <si>
     <t>Doi</t>
   </si>
@@ -1327,6 +1327,69 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,                   Christopher J%Armitage%NULL%2,                   Christopher J%Armitage%NULL%0,                   Tova%Tampe%NULL%1,                   Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%1,            Kacey C.%Ernst%xref no email%1,            Francisco Fernando%Martins%xref no email%1,            Cicera da Silva%Martins%xref no email%1,            Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                    Maria%Roura%NULL%1,                    Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                    Edna%Maradiaga%edjamar3006@yahoo.com%1,                    Javier%Roberti%jroberti@iecs.org.ar%1,                    Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                    Alison F.%Ortez%alison_fabiola@yahoo.es%1,                    Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                    Gloria%González%marilyntoin@yahoo.com%1,                    Carolina%Bustillo%mcbu1502@yahoo.com%0,                    Alejandra%Calderón%lilianalecalderon@gmail.com%1,                    Harry%Bock%hbockme@hotmail.com%1,                    María L.%Cafferata%NULL%1,                    Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                    Jackeline%Alger%jackelinealger@gmail.com%1,                    Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,          Julie A.%Gazmararian%null%1,          Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,                   Bohme%G.%coreGivesNoEmail%1,                   Chiang%H-H%coreGivesNoEmail%4,                   Chiang%H-H%coreGivesNoEmail%0,                   Chiang%H-H%coreGivesNoEmail%0,                   Chiang%H-H%coreGivesNoEmail%0,                   Donohoe%J.%coreGivesNoEmail%1,                   Hsien-Hsien%Chiang%coreGivesNoEmail%1,                   I-Ling%Sue%coreGivesNoEmail%1,                   International%Council of Nurses%coreGivesNoEmail%1,                   Mei-Bih%Chen%coreGivesNoEmail%1,                   Morgan%DL%coreGivesNoEmail%1,                   Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,                   Dodgson%JE%coreGivesNoEmail%1,                   Tarrant%M%coreGivesNoEmail%1,                   Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                     Bente%Dahl%null%1,                   Elin%Erland%null%1,                   Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,                   Flowers%Paul%coreGivesNoEmail%1,                   Lohm%Davina%coreGivesNoEmail%1,                   Stephenson%Niamh%coreGivesNoEmail%1,                   Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                    Carlos%Mejia Arbelaez%NULL%1,                    Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                     Betty%Sam%null%1,                     Florence%Bull%null%1,                     Steven Bagie%Pieh%null%1,                     Jaki%Lambert%null%1,                     Florence%Mgawadere%null%1,                     Somasundari%Gopalakrishnan%null%1,                     Charles A.%Ameh%null%1,                     Nynke%van den Broek%null%1,                   Susan%Jones%null%1,                   Betty%Sam%null%1,                   Florence%Bull%null%1,                   Steven Bagie%Pieh%null%1,                   Jaki%Lambert%null%1,                   Florence%Mgawadere%null%1,                   Somasundari%Gopalakrishnan%null%1,                   Charles A.%Ameh%null%1,                   Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                    Miranda%Davies-Tuck%NULL%1,                    Hannah G.%Dahlen%NULL%1,                    Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%1,            Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,          Elizabeth W.%Mitchell%null%1,          Jennifer L.%Williams%null%1,          Kelly%Brumbaugh%null%1,          Michelle%Jones-Bell%null%1,          Debra E.%Pinkney%null%1,          Christine M.%Layton%null%1,          Patricia W.%Mersereau%null%1,          Juliette S.%Kendrick%null%1,          Paula Eguino%Medina%null%1,          Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                    Luoqun%Wei%NULL%1,                    Suling%Shi%NULL%1,                    Dandan%Jiao%NULL%1,                    Runluo%Song%NULL%1,                    Lili%Ma%NULL%1,                    Hongwei%Wang%NULL%1,                    Chao%Wang%NULL%1,                    Zhaoguo%Wang%NULL%1,                    Yanli%You%NULL%1,                    Shuhua%Liu%NULL%1,                    Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%1,            Maria%Hartley%xref no email%1,            Jyoti%Saha%xref no email%1,            Sarah%Murray%xref no email%1,            Nancy%Glass%xref no email%1,            Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                    Santiago A.%Morales Mesa%NULL%1,                    John%Kinsman%NULL%1,                    Anna Mia%Ekström%NULL%1,                    Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                    Christopher J%Armitage%NULL%2,                    Christopher J%Armitage%NULL%0,                    Tova%Tampe%NULL%1,                    Kimberly%Dienes%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1663,7 +1726,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1675,7 +1738,7 @@
         <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1692,7 +1755,7 @@
         <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1704,7 +1767,7 @@
         <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1721,7 +1784,7 @@
         <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1733,7 +1796,7 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1750,7 +1813,7 @@
         <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1762,7 +1825,7 @@
         <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1779,7 +1842,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1791,7 +1854,7 @@
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1808,7 +1871,7 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1820,7 +1883,7 @@
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1837,7 +1900,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -1849,7 +1912,7 @@
         <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1866,7 +1929,7 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1878,7 +1941,7 @@
         <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1895,7 +1958,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -1907,7 +1970,7 @@
         <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1924,7 +1987,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1936,7 +1999,7 @@
         <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1953,7 +2016,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -1965,7 +2028,7 @@
         <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1982,7 +2045,7 @@
         <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1994,7 +2057,7 @@
         <v>158</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2011,7 +2074,7 @@
         <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2023,7 +2086,7 @@
         <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2040,7 +2103,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -2052,7 +2115,7 @@
         <v>31</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2069,7 +2132,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2081,7 +2144,7 @@
         <v>176</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2098,7 +2161,7 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -2110,7 +2173,7 @@
         <v>31</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2127,7 +2190,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>
@@ -2139,7 +2202,7 @@
         <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="391">
   <si>
     <t>Doi</t>
   </si>
@@ -1390,6 +1390,57 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,                    Christopher J%Armitage%NULL%2,                    Christopher J%Armitage%NULL%0,                    Tova%Tampe%NULL%1,                    Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%1,             Kacey C.%Ernst%xref no email%1,             Francisco Fernando%Martins%xref no email%1,             Cicera da Silva%Martins%xref no email%1,             Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                     Maria%Roura%NULL%1,                     Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                     Edna%Maradiaga%edjamar3006@yahoo.com%1,                     Javier%Roberti%jroberti@iecs.org.ar%1,                     Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                     Alison F.%Ortez%alison_fabiola@yahoo.es%1,                     Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                     Gloria%González%marilyntoin@yahoo.com%1,                     Carolina%Bustillo%mcbu1502@yahoo.com%0,                     Alejandra%Calderón%lilianalecalderon@gmail.com%1,                     Harry%Bock%hbockme@hotmail.com%1,                     María L.%Cafferata%NULL%1,                     Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                     Jackeline%Alger%jackelinealger@gmail.com%1,                     Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,           Julie A.%Gazmararian%null%1,           Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,                    Bohme%G.%coreGivesNoEmail%1,                    Chiang%H-H%coreGivesNoEmail%4,                    Chiang%H-H%coreGivesNoEmail%0,                    Chiang%H-H%coreGivesNoEmail%0,                    Chiang%H-H%coreGivesNoEmail%0,                    Donohoe%J.%coreGivesNoEmail%1,                    Hsien-Hsien%Chiang%coreGivesNoEmail%1,                    I-Ling%Sue%coreGivesNoEmail%1,                    International%Council of Nurses%coreGivesNoEmail%1,                    Mei-Bih%Chen%coreGivesNoEmail%1,                    Morgan%DL%coreGivesNoEmail%1,                    Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,                    Dodgson%JE%coreGivesNoEmail%1,                    Tarrant%M%coreGivesNoEmail%1,                    Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                      Bente%Dahl%null%1,                    Elin%Erland%null%1,                    Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,                    Flowers%Paul%coreGivesNoEmail%1,                    Lohm%Davina%coreGivesNoEmail%1,                    Stephenson%Niamh%coreGivesNoEmail%1,                    Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                     Carlos%Mejia Arbelaez%NULL%1,                     Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                      Betty%Sam%null%1,                      Florence%Bull%null%1,                      Steven Bagie%Pieh%null%1,                      Jaki%Lambert%null%1,                      Florence%Mgawadere%null%1,                      Somasundari%Gopalakrishnan%null%1,                      Charles A.%Ameh%null%1,                      Nynke%van den Broek%null%1,                    Susan%Jones%null%1,                    Betty%Sam%null%1,                    Florence%Bull%null%1,                    Steven Bagie%Pieh%null%1,                    Jaki%Lambert%null%1,                    Florence%Mgawadere%null%1,                    Somasundari%Gopalakrishnan%null%1,                    Charles A.%Ameh%null%1,                    Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                     Miranda%Davies-Tuck%NULL%1,                     Hannah G.%Dahlen%NULL%1,                     Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%1,             Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,           Elizabeth W.%Mitchell%null%1,           Jennifer L.%Williams%null%1,           Kelly%Brumbaugh%null%1,           Michelle%Jones-Bell%null%1,           Debra E.%Pinkney%null%1,           Christine M.%Layton%null%1,           Patricia W.%Mersereau%null%1,           Juliette S.%Kendrick%null%1,           Paula Eguino%Medina%null%1,           Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                     Luoqun%Wei%NULL%1,                     Suling%Shi%NULL%1,                     Dandan%Jiao%NULL%1,                     Runluo%Song%NULL%1,                     Lili%Ma%NULL%1,                     Hongwei%Wang%NULL%1,                     Chao%Wang%NULL%1,                     Zhaoguo%Wang%NULL%1,                     Yanli%You%NULL%1,                     Shuhua%Liu%NULL%1,                     Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%1,             Maria%Hartley%xref no email%1,             Jyoti%Saha%xref no email%1,             Sarah%Murray%xref no email%1,             Nancy%Glass%xref no email%1,             Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                     Santiago A.%Morales Mesa%NULL%1,                     John%Kinsman%NULL%1,                     Anna Mia%Ekström%NULL%1,                     Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                     Christopher J%Armitage%NULL%2,                     Christopher J%Armitage%NULL%0,                     Tova%Tampe%NULL%1,                     Kimberly%Dienes%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1777,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1755,7 +1806,7 @@
         <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1784,7 +1835,7 @@
         <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1813,7 +1864,7 @@
         <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1842,7 +1893,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1871,7 +1922,7 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1900,7 +1951,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -1929,7 +1980,7 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1958,7 +2009,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -1987,7 +2038,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -2016,7 +2067,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -2045,7 +2096,7 @@
         <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2074,7 +2125,7 @@
         <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2103,7 +2154,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -2132,7 +2183,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2161,7 +2212,7 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -2190,7 +2241,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>

--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="469">
   <si>
     <t>Doi</t>
   </si>
@@ -1441,6 +1441,240 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,                     Christopher J%Armitage%NULL%2,                     Christopher J%Armitage%NULL%0,                     Tova%Tampe%NULL%1,                     Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Elizabeth J.%Anderson%xref no email%0, Kacey C.%Ernst%xref no email%1, Francisco Fernando%Martins%xref no email%1, Cicera da Silva%Martins%xref no email%1, Mary P.%Koss%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Society of Tropical Medicine and Hygiene</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                      Maria%Roura%NULL%1,                      Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                      Edna%Maradiaga%edjamar3006@yahoo.com%1,                      Javier%Roberti%jroberti@iecs.org.ar%1,                      Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                      Alison F.%Ortez%alison_fabiola@yahoo.es%1,                      Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                      Gloria%González%marilyntoin@yahoo.com%1,                      Carolina%Bustillo%mcbu1502@yahoo.com%0,                      Alejandra%Calderón%lilianalecalderon@gmail.com%1,                      Harry%Bock%hbockme@hotmail.com%1,                      María L.%Cafferata%NULL%1,                      Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                      Jackeline%Alger%jackelinealger@gmail.com%1,                      Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,            Julie A.%Gazmararian%null%1,            Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,                     Bohme%G.%coreGivesNoEmail%1,                     Chiang%H-H%coreGivesNoEmail%4,                     Chiang%H-H%coreGivesNoEmail%0,                     Chiang%H-H%coreGivesNoEmail%0,                     Chiang%H-H%coreGivesNoEmail%0,                     Donohoe%J.%coreGivesNoEmail%1,                     Hsien-Hsien%Chiang%coreGivesNoEmail%1,                     I-Ling%Sue%coreGivesNoEmail%1,                     International%Council of Nurses%coreGivesNoEmail%1,                     Mei-Bih%Chen%coreGivesNoEmail%1,                     Morgan%DL%coreGivesNoEmail%1,                     Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,                     Dodgson%JE%coreGivesNoEmail%1,                     Tarrant%M%coreGivesNoEmail%1,                     Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                       Bente%Dahl%null%1,                     Elin%Erland%null%1,                     Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,                     Flowers%Paul%coreGivesNoEmail%1,                     Lohm%Davina%coreGivesNoEmail%1,                     Stephenson%Niamh%coreGivesNoEmail%1,                     Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                      Carlos%Mejia Arbelaez%NULL%1,                      Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                       Betty%Sam%null%1,                       Florence%Bull%null%1,                       Steven Bagie%Pieh%null%1,                       Jaki%Lambert%null%1,                       Florence%Mgawadere%null%1,                       Somasundari%Gopalakrishnan%null%1,                       Charles A.%Ameh%null%1,                       Nynke%van den Broek%null%1,                     Susan%Jones%null%1,                     Betty%Sam%null%1,                     Florence%Bull%null%1,                     Steven Bagie%Pieh%null%1,                     Jaki%Lambert%null%1,                     Florence%Mgawadere%null%1,                     Somasundari%Gopalakrishnan%null%1,                     Charles A.%Ameh%null%1,                     Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                      Miranda%Davies-Tuck%NULL%1,                      Hannah G.%Dahlen%NULL%1,                      Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde%xref no email%0, Carlos Eduardo%Siqueira%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: FapUNIFESP (SciELO)</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,            Elizabeth W.%Mitchell%null%1,            Jennifer L.%Williams%null%1,            Kelly%Brumbaugh%null%1,            Michelle%Jones-Bell%null%1,            Debra E.%Pinkney%null%1,            Christine M.%Layton%null%1,            Patricia W.%Mersereau%null%1,            Juliette S.%Kendrick%null%1,            Paula Eguino%Medina%null%1,            Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                      Luoqun%Wei%NULL%1,                      Suling%Shi%NULL%1,                      Dandan%Jiao%NULL%1,                      Runluo%Song%NULL%1,                      Lili%Ma%NULL%1,                      Hongwei%Wang%NULL%1,                      Chao%Wang%NULL%1,                      Zhaoguo%Wang%NULL%1,                      Yanli%You%NULL%1,                      Shuhua%Liu%NULL%1,                      Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bushra%Sabri%xref no email%0, Maria%Hartley%xref no email%1, Jyoti%Saha%xref no email%1, Sarah%Murray%xref no email%1, Nancy%Glass%xref no email%1, Jacquelyn C.%Campbell%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-30</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Informa UK Limited</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                      Santiago A.%Morales Mesa%NULL%1,                      John%Kinsman%NULL%1,                      Anna Mia%Ekström%NULL%1,                      Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                      Christopher J%Armitage%NULL%2,                      Christopher J%Armitage%NULL%0,                      Tova%Tampe%NULL%1,                      Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                       Maria%Roura%NULL%1,                       Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                       Edna%Maradiaga%edjamar3006@yahoo.com%1,                       Javier%Roberti%jroberti@iecs.org.ar%1,                       Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                       Alison F.%Ortez%alison_fabiola@yahoo.es%1,                       Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                       Gloria%González%marilyntoin@yahoo.com%1,                       Carolina%Bustillo%mcbu1502@yahoo.com%0,                       Alejandra%Calderón%lilianalecalderon@gmail.com%1,                       Harry%Bock%hbockme@hotmail.com%1,                       María L.%Cafferata%NULL%1,                       Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                       Jackeline%Alger%jackelinealger@gmail.com%1,                       Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,             Julie A.%Gazmararian%null%1,             Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,                      Bohme%G.%coreGivesNoEmail%1,                      Chiang%H-H%coreGivesNoEmail%4,                      Chiang%H-H%coreGivesNoEmail%0,                      Chiang%H-H%coreGivesNoEmail%0,                      Chiang%H-H%coreGivesNoEmail%0,                      Donohoe%J.%coreGivesNoEmail%1,                      Hsien-Hsien%Chiang%coreGivesNoEmail%1,                      I-Ling%Sue%coreGivesNoEmail%1,                      International%Council of Nurses%coreGivesNoEmail%1,                      Mei-Bih%Chen%coreGivesNoEmail%1,                      Morgan%DL%coreGivesNoEmail%1,                      Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,                      Dodgson%JE%coreGivesNoEmail%1,                      Tarrant%M%coreGivesNoEmail%1,                      Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                        Bente%Dahl%null%1,                      Elin%Erland%null%1,                      Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,                      Flowers%Paul%coreGivesNoEmail%1,                      Lohm%Davina%coreGivesNoEmail%1,                      Stephenson%Niamh%coreGivesNoEmail%1,                      Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                       Carlos%Mejia Arbelaez%NULL%1,                       Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                        Betty%Sam%null%1,                        Florence%Bull%null%1,                        Steven Bagie%Pieh%null%1,                        Jaki%Lambert%null%1,                        Florence%Mgawadere%null%1,                        Somasundari%Gopalakrishnan%null%1,                        Charles A.%Ameh%null%1,                        Nynke%van den Broek%null%1,                      Susan%Jones%null%1,                      Betty%Sam%null%1,                      Florence%Bull%null%1,                      Steven Bagie%Pieh%null%1,                      Jaki%Lambert%null%1,                      Florence%Mgawadere%null%1,                      Somasundari%Gopalakrishnan%null%1,                      Charles A.%Ameh%null%1,                      Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                       Miranda%Davies-Tuck%NULL%1,                       Hannah G.%Dahlen%NULL%1,                       Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,             Elizabeth W.%Mitchell%null%1,             Jennifer L.%Williams%null%1,             Kelly%Brumbaugh%null%1,             Michelle%Jones-Bell%null%1,             Debra E.%Pinkney%null%1,             Christine M.%Layton%null%1,             Patricia W.%Mersereau%null%1,             Juliette S.%Kendrick%null%1,             Paula Eguino%Medina%null%1,             Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                       Luoqun%Wei%NULL%1,                       Suling%Shi%NULL%1,                       Dandan%Jiao%NULL%1,                       Runluo%Song%NULL%1,                       Lili%Ma%NULL%1,                       Hongwei%Wang%NULL%1,                       Chao%Wang%NULL%1,                       Zhaoguo%Wang%NULL%1,                       Yanli%You%NULL%1,                       Shuhua%Liu%NULL%1,                       Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                       Santiago A.%Morales Mesa%NULL%1,                       John%Kinsman%NULL%1,                       Anna Mia%Ekström%NULL%1,                       Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                       Christopher J%Armitage%NULL%2,                       Christopher J%Armitage%NULL%0,                       Tova%Tampe%NULL%1,                       Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                        Maria%Roura%NULL%1,                        Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                        Edna%Maradiaga%edjamar3006@yahoo.com%1,                        Javier%Roberti%jroberti@iecs.org.ar%1,                        Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                        Alison F.%Ortez%alison_fabiola@yahoo.es%1,                        Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                        Gloria%González%marilyntoin@yahoo.com%1,                        Carolina%Bustillo%mcbu1502@yahoo.com%0,                        Alejandra%Calderón%lilianalecalderon@gmail.com%1,                        Harry%Bock%hbockme@hotmail.com%1,                        María L.%Cafferata%NULL%1,                        Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                        Jackeline%Alger%jackelinealger@gmail.com%1,                        Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,              Julie A.%Gazmararian%null%1,              Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,                       Bohme%G.%coreGivesNoEmail%1,                       Chiang%H-H%coreGivesNoEmail%4,                       Chiang%H-H%coreGivesNoEmail%0,                       Chiang%H-H%coreGivesNoEmail%0,                       Chiang%H-H%coreGivesNoEmail%0,                       Donohoe%J.%coreGivesNoEmail%1,                       Hsien-Hsien%Chiang%coreGivesNoEmail%1,                       I-Ling%Sue%coreGivesNoEmail%1,                       International%Council of Nurses%coreGivesNoEmail%1,                       Mei-Bih%Chen%coreGivesNoEmail%1,                       Morgan%DL%coreGivesNoEmail%1,                       Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,                       Dodgson%JE%coreGivesNoEmail%1,                       Tarrant%M%coreGivesNoEmail%1,                       Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                         Bente%Dahl%null%1,                       Elin%Erland%null%1,                       Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,                       Flowers%Paul%coreGivesNoEmail%1,                       Lohm%Davina%coreGivesNoEmail%1,                       Stephenson%Niamh%coreGivesNoEmail%1,                       Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                        Carlos%Mejia Arbelaez%NULL%1,                        Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                         Betty%Sam%null%1,                         Florence%Bull%null%1,                         Steven Bagie%Pieh%null%1,                         Jaki%Lambert%null%1,                         Florence%Mgawadere%null%1,                         Somasundari%Gopalakrishnan%null%1,                         Charles A.%Ameh%null%1,                         Nynke%van den Broek%null%1,                       Susan%Jones%null%1,                       Betty%Sam%null%1,                       Florence%Bull%null%1,                       Steven Bagie%Pieh%null%1,                       Jaki%Lambert%null%1,                       Florence%Mgawadere%null%1,                       Somasundari%Gopalakrishnan%null%1,                       Charles A.%Ameh%null%1,                       Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                        Miranda%Davies-Tuck%NULL%1,                        Hannah G.%Dahlen%NULL%1,                        Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,              Elizabeth W.%Mitchell%null%1,              Jennifer L.%Williams%null%1,              Kelly%Brumbaugh%null%1,              Michelle%Jones-Bell%null%1,              Debra E.%Pinkney%null%1,              Christine M.%Layton%null%1,              Patricia W.%Mersereau%null%1,              Juliette S.%Kendrick%null%1,              Paula Eguino%Medina%null%1,              Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                        Luoqun%Wei%NULL%1,                        Suling%Shi%NULL%1,                        Dandan%Jiao%NULL%1,                        Runluo%Song%NULL%1,                        Lili%Ma%NULL%1,                        Hongwei%Wang%NULL%1,                        Chao%Wang%NULL%1,                        Zhaoguo%Wang%NULL%1,                        Yanli%You%NULL%1,                        Shuhua%Liu%NULL%1,                        Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                        Santiago A.%Morales Mesa%NULL%1,                        John%Kinsman%NULL%1,                        Anna Mia%Ekström%NULL%1,                        Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                        Christopher J%Armitage%NULL%2,                        Christopher J%Armitage%NULL%0,                        Tova%Tampe%NULL%1,                        Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                         Maria%Roura%NULL%1,                         Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                         Edna%Maradiaga%edjamar3006@yahoo.com%1,                         Javier%Roberti%jroberti@iecs.org.ar%1,                         Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                         Alison F.%Ortez%alison_fabiola@yahoo.es%1,                         Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                         Gloria%González%marilyntoin@yahoo.com%1,                         Carolina%Bustillo%mcbu1502@yahoo.com%0,                         Alejandra%Calderón%lilianalecalderon@gmail.com%1,                         Harry%Bock%hbockme@hotmail.com%1,                         María L.%Cafferata%NULL%1,                         Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                         Jackeline%Alger%jackelinealger@gmail.com%1,                         Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,               Julie A.%Gazmararian%null%1,               Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,                        Bohme%G.%coreGivesNoEmail%1,                        Chiang%H-H%coreGivesNoEmail%4,                        Chiang%H-H%coreGivesNoEmail%0,                        Chiang%H-H%coreGivesNoEmail%0,                        Chiang%H-H%coreGivesNoEmail%0,                        Donohoe%J.%coreGivesNoEmail%1,                        Hsien-Hsien%Chiang%coreGivesNoEmail%1,                        I-Ling%Sue%coreGivesNoEmail%1,                        International%Council of Nurses%coreGivesNoEmail%1,                        Mei-Bih%Chen%coreGivesNoEmail%1,                        Morgan%DL%coreGivesNoEmail%1,                        Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,                        Dodgson%JE%coreGivesNoEmail%1,                        Tarrant%M%coreGivesNoEmail%1,                        Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                          Bente%Dahl%null%1,                        Elin%Erland%null%1,                        Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,                        Flowers%Paul%coreGivesNoEmail%1,                        Lohm%Davina%coreGivesNoEmail%1,                        Stephenson%Niamh%coreGivesNoEmail%1,                        Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                         Carlos%Mejia Arbelaez%NULL%1,                         Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                          Betty%Sam%null%1,                          Florence%Bull%null%1,                          Steven Bagie%Pieh%null%1,                          Jaki%Lambert%null%1,                          Florence%Mgawadere%null%1,                          Somasundari%Gopalakrishnan%null%1,                          Charles A.%Ameh%null%1,                          Nynke%van den Broek%null%1,                        Susan%Jones%null%1,                        Betty%Sam%null%1,                        Florence%Bull%null%1,                        Steven Bagie%Pieh%null%1,                        Jaki%Lambert%null%1,                        Florence%Mgawadere%null%1,                        Somasundari%Gopalakrishnan%null%1,                        Charles A.%Ameh%null%1,                        Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                         Miranda%Davies-Tuck%NULL%1,                         Hannah G.%Dahlen%NULL%1,                         Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,               Elizabeth W.%Mitchell%null%1,               Jennifer L.%Williams%null%1,               Kelly%Brumbaugh%null%1,               Michelle%Jones-Bell%null%1,               Debra E.%Pinkney%null%1,               Christine M.%Layton%null%1,               Patricia W.%Mersereau%null%1,               Juliette S.%Kendrick%null%1,               Paula Eguino%Medina%null%1,               Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                         Luoqun%Wei%NULL%1,                         Suling%Shi%NULL%1,                         Dandan%Jiao%NULL%1,                         Runluo%Song%NULL%1,                         Lili%Ma%NULL%1,                         Hongwei%Wang%NULL%1,                         Chao%Wang%NULL%1,                         Zhaoguo%Wang%NULL%1,                         Yanli%You%NULL%1,                         Shuhua%Liu%NULL%1,                         Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                         Santiago A.%Morales Mesa%NULL%1,                         John%Kinsman%NULL%1,                         Anna Mia%Ekström%NULL%1,                         Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                         Christopher J%Armitage%NULL%2,                         Christopher J%Armitage%NULL%0,                         Tova%Tampe%NULL%1,                         Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                          Maria%Roura%NULL%1,                          Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                          Edna%Maradiaga%edjamar3006@yahoo.com%1,                          Javier%Roberti%jroberti@iecs.org.ar%1,                          Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                          Alison F.%Ortez%alison_fabiola@yahoo.es%1,                          Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                          Gloria%González%marilyntoin@yahoo.com%1,                          Carolina%Bustillo%mcbu1502@yahoo.com%0,                          Alejandra%Calderón%lilianalecalderon@gmail.com%1,                          Harry%Bock%hbockme@hotmail.com%1,                          María L.%Cafferata%NULL%1,                          Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                          Jackeline%Alger%jackelinealger@gmail.com%1,                          Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,                Julie A.%Gazmararian%null%1,                Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,                         Bohme%G.%coreGivesNoEmail%1,                         Chiang%H-H%coreGivesNoEmail%4,                         Chiang%H-H%coreGivesNoEmail%0,                         Chiang%H-H%coreGivesNoEmail%0,                         Chiang%H-H%coreGivesNoEmail%0,                         Donohoe%J.%coreGivesNoEmail%1,                         Hsien-Hsien%Chiang%coreGivesNoEmail%1,                         I-Ling%Sue%coreGivesNoEmail%1,                         International%Council of Nurses%coreGivesNoEmail%1,                         Mei-Bih%Chen%coreGivesNoEmail%1,                         Morgan%DL%coreGivesNoEmail%1,                         Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,                         Dodgson%JE%coreGivesNoEmail%1,                         Tarrant%M%coreGivesNoEmail%1,                         Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                           Bente%Dahl%null%1,                         Elin%Erland%null%1,                         Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,                         Flowers%Paul%coreGivesNoEmail%1,                         Lohm%Davina%coreGivesNoEmail%1,                         Stephenson%Niamh%coreGivesNoEmail%1,                         Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                          Carlos%Mejia Arbelaez%NULL%1,                          Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                           Betty%Sam%null%1,                           Florence%Bull%null%1,                           Steven Bagie%Pieh%null%1,                           Jaki%Lambert%null%1,                           Florence%Mgawadere%null%1,                           Somasundari%Gopalakrishnan%null%1,                           Charles A.%Ameh%null%1,                           Nynke%van den Broek%null%1,                         Susan%Jones%null%1,                         Betty%Sam%null%1,                         Florence%Bull%null%1,                         Steven Bagie%Pieh%null%1,                         Jaki%Lambert%null%1,                         Florence%Mgawadere%null%1,                         Somasundari%Gopalakrishnan%null%1,                         Charles A.%Ameh%null%1,                         Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                          Miranda%Davies-Tuck%NULL%1,                          Hannah G.%Dahlen%NULL%1,                          Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,                Elizabeth W.%Mitchell%null%1,                Jennifer L.%Williams%null%1,                Kelly%Brumbaugh%null%1,                Michelle%Jones-Bell%null%1,                Debra E.%Pinkney%null%1,                Christine M.%Layton%null%1,                Patricia W.%Mersereau%null%1,                Juliette S.%Kendrick%null%1,                Paula Eguino%Medina%null%1,                Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                          Luoqun%Wei%NULL%1,                          Suling%Shi%NULL%1,                          Dandan%Jiao%NULL%1,                          Runluo%Song%NULL%1,                          Lili%Ma%NULL%1,                          Hongwei%Wang%NULL%1,                          Chao%Wang%NULL%1,                          Zhaoguo%Wang%NULL%1,                          Yanli%You%NULL%1,                          Shuhua%Liu%NULL%1,                          Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                          Santiago A.%Morales Mesa%NULL%1,                          John%Kinsman%NULL%1,                          Anna Mia%Ekström%NULL%1,                          Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                          Christopher J%Armitage%NULL%2,                          Christopher J%Armitage%NULL%0,                          Tova%Tampe%NULL%1,                          Kimberly%Dienes%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1762,6 +1996,9 @@
       <c r="I1" t="s">
         <v>79</v>
       </c>
+      <c r="J1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1777,7 +2014,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>374</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1789,7 +2026,10 @@
         <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>354</v>
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1806,7 +2046,7 @@
         <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>375</v>
+        <v>455</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1819,6 +2059,9 @@
       </c>
       <c r="I3" t="s">
         <v>356</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1835,7 +2078,7 @@
         <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1848,6 +2091,9 @@
       </c>
       <c r="I4" t="s">
         <v>356</v>
+      </c>
+      <c r="J4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1864,7 +2110,7 @@
         <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>377</v>
+        <v>457</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1877,6 +2123,9 @@
       </c>
       <c r="I5" t="s">
         <v>354</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1893,7 +2142,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>378</v>
+        <v>458</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1906,6 +2155,9 @@
       </c>
       <c r="I6" t="s">
         <v>354</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1922,7 +2174,7 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>379</v>
+        <v>459</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1935,6 +2187,9 @@
       </c>
       <c r="I7" t="s">
         <v>354</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1951,7 +2206,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -1964,6 +2219,9 @@
       </c>
       <c r="I8" t="s">
         <v>354</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1980,7 +2238,7 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>381</v>
+        <v>461</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1993,6 +2251,9 @@
       </c>
       <c r="I9" t="s">
         <v>354</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2009,7 +2270,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>382</v>
+        <v>462</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -2022,6 +2283,9 @@
       </c>
       <c r="I10" t="s">
         <v>364</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2038,7 +2302,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>383</v>
+        <v>463</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -2051,6 +2315,9 @@
       </c>
       <c r="I11" t="s">
         <v>354</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2067,7 +2334,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>384</v>
+        <v>464</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -2080,6 +2347,9 @@
       </c>
       <c r="I12" t="s">
         <v>367</v>
+      </c>
+      <c r="J12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2096,7 +2366,7 @@
         <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>385</v>
+        <v>245</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2108,7 +2378,10 @@
         <v>158</v>
       </c>
       <c r="I13" t="s">
-        <v>354</v>
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2125,7 +2398,7 @@
         <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>386</v>
+        <v>465</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2138,6 +2411,9 @@
       </c>
       <c r="I14" t="s">
         <v>354</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,7 +2430,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>387</v>
+        <v>466</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -2167,6 +2443,9 @@
       </c>
       <c r="I15" t="s">
         <v>367</v>
+      </c>
+      <c r="J15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2183,7 +2462,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>388</v>
+        <v>248</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2192,10 +2471,13 @@
         <v>157</v>
       </c>
       <c r="H16" t="s">
-        <v>176</v>
+        <v>409</v>
       </c>
       <c r="I16" t="s">
-        <v>354</v>
+        <v>80</v>
+      </c>
+      <c r="J16" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2212,7 +2494,7 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>389</v>
+        <v>467</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -2225,6 +2507,9 @@
       </c>
       <c r="I17" t="s">
         <v>364</v>
+      </c>
+      <c r="J17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2241,7 +2526,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>390</v>
+        <v>468</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>
@@ -2254,6 +2539,9 @@
       </c>
       <c r="I18" t="s">
         <v>364</v>
+      </c>
+      <c r="J18" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/45.xlsx
+++ b/Covid_19_Dataset_and_References/References/45.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="497">
   <si>
     <t>Doi</t>
   </si>
@@ -1675,6 +1675,90 @@
   </si>
   <si>
     <t>[Simon N%Williams%NULL%1,                          Christopher J%Armitage%NULL%2,                          Christopher J%Armitage%NULL%0,                          Tova%Tampe%NULL%1,                          Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                           Maria%Roura%NULL%1,                           Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                           Edna%Maradiaga%edjamar3006@yahoo.com%1,                           Javier%Roberti%jroberti@iecs.org.ar%1,                           Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                           Alison F.%Ortez%alison_fabiola@yahoo.es%1,                           Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                           Gloria%González%marilyntoin@yahoo.com%1,                           Carolina%Bustillo%mcbu1502@yahoo.com%0,                           Alejandra%Calderón%lilianalecalderon@gmail.com%1,                           Harry%Bock%hbockme@hotmail.com%1,                           María L.%Cafferata%NULL%1,                           Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                           Jackeline%Alger%jackelinealger@gmail.com%1,                           Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,                 Julie A.%Gazmararian%null%1,                 Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,                          Bohme%G.%coreGivesNoEmail%1,                          Chiang%H-H%coreGivesNoEmail%4,                          Chiang%H-H%coreGivesNoEmail%0,                          Chiang%H-H%coreGivesNoEmail%0,                          Chiang%H-H%coreGivesNoEmail%0,                          Donohoe%J.%coreGivesNoEmail%1,                          Hsien-Hsien%Chiang%coreGivesNoEmail%1,                          I-Ling%Sue%coreGivesNoEmail%1,                          International%Council of Nurses%coreGivesNoEmail%1,                          Mei-Bih%Chen%coreGivesNoEmail%1,                          Morgan%DL%coreGivesNoEmail%1,                          Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,                          Dodgson%JE%coreGivesNoEmail%1,                          Tarrant%M%coreGivesNoEmail%1,                          Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                            Bente%Dahl%null%1,                          Elin%Erland%null%1,                          Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,                          Flowers%Paul%coreGivesNoEmail%1,                          Lohm%Davina%coreGivesNoEmail%1,                          Stephenson%Niamh%coreGivesNoEmail%1,                          Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                           Carlos%Mejia Arbelaez%NULL%1,                           Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                            Betty%Sam%null%1,                            Florence%Bull%null%1,                            Steven Bagie%Pieh%null%1,                            Jaki%Lambert%null%1,                            Florence%Mgawadere%null%1,                            Somasundari%Gopalakrishnan%null%1,                            Charles A.%Ameh%null%1,                            Nynke%van den Broek%null%1,                          Susan%Jones%null%1,                          Betty%Sam%null%1,                          Florence%Bull%null%1,                          Steven Bagie%Pieh%null%1,                          Jaki%Lambert%null%1,                          Florence%Mgawadere%null%1,                          Somasundari%Gopalakrishnan%null%1,                          Charles A.%Ameh%null%1,                          Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                           Miranda%Davies-Tuck%NULL%1,                           Hannah G.%Dahlen%NULL%1,                           Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,                 Elizabeth W.%Mitchell%null%1,                 Jennifer L.%Williams%null%1,                 Kelly%Brumbaugh%null%1,                 Michelle%Jones-Bell%null%1,                 Debra E.%Pinkney%null%1,                 Christine M.%Layton%null%1,                 Patricia W.%Mersereau%null%1,                 Juliette S.%Kendrick%null%1,                 Paula Eguino%Medina%null%1,                 Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                           Luoqun%Wei%NULL%1,                           Suling%Shi%NULL%1,                           Dandan%Jiao%NULL%1,                           Runluo%Song%NULL%1,                           Lili%Ma%NULL%1,                           Hongwei%Wang%NULL%1,                           Chao%Wang%NULL%1,                           Zhaoguo%Wang%NULL%1,                           Yanli%You%NULL%1,                           Shuhua%Liu%NULL%1,                           Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                           Santiago A.%Morales Mesa%NULL%1,                           John%Kinsman%NULL%1,                           Anna Mia%Ekström%NULL%1,                           Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                           Christopher J%Armitage%NULL%2,                           Christopher J%Armitage%NULL%0,                           Tova%Tampe%NULL%1,                           Kimberly%Dienes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Rosa%Linde-Arias%linde14@yahoo.com%1,                            Maria%Roura%NULL%1,                            Eduardo%Siqueira%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Belizan%mbelizan@iecs.org.ar%1,                            Edna%Maradiaga%edjamar3006@yahoo.com%1,                            Javier%Roberti%jroberti@iecs.org.ar%1,                            Maricela%Casco-Aguilar%marykasco@yahoo.com%1,                            Alison F.%Ortez%alison_fabiola@yahoo.es%1,                            Juan C.%Avila-Flores%javilaflores3@gmail.com%1,                            Gloria%González%marilyntoin@yahoo.com%1,                            Carolina%Bustillo%mcbu1502@yahoo.com%0,                            Alejandra%Calderón%lilianalecalderon@gmail.com%1,                            Harry%Bock%hbockme@hotmail.com%1,                            María L.%Cafferata%NULL%1,                            Adriano B.%Tavares%adriano.b.tavares@gmail.com%1,                            Jackeline%Alger%jackelinealger@gmail.com%1,                            Moazzam%Ali%alimoa@who.int%1]</t>
+  </si>
+  <si>
+    <t>[ Catherine A.%Boyd%null%1,                  Julie A.%Gazmararian%null%1,                  Winifred Wilkins%Thompson%null%1]</t>
+  </si>
+  <si>
+    <t>[Benner%P.%coreGivesNoEmail%1,                           Bohme%G.%coreGivesNoEmail%1,                           Chiang%H-H%coreGivesNoEmail%4,                           Chiang%H-H%coreGivesNoEmail%0,                           Chiang%H-H%coreGivesNoEmail%0,                           Chiang%H-H%coreGivesNoEmail%0,                           Donohoe%J.%coreGivesNoEmail%1,                           Hsien-Hsien%Chiang%coreGivesNoEmail%1,                           I-Ling%Sue%coreGivesNoEmail%1,                           International%Council of Nurses%coreGivesNoEmail%1,                           Mei-Bih%Chen%coreGivesNoEmail%1,                           Morgan%DL%coreGivesNoEmail%1,                           Packer%MJ%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chee%YO%coreGivesNoEmail%1,                           Dodgson%JE%coreGivesNoEmail%1,                           Tarrant%M%coreGivesNoEmail%1,                           Watkins%A%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Elin%Erland%null%1,                             Bente%Dahl%null%1,                           Elin%Erland%null%1,                           Bente%Dahl%null%1]</t>
+  </si>
+  <si>
+    <t>[Davis%Mark%coreGivesNoEmail%1,                           Flowers%Paul%coreGivesNoEmail%1,                           Lohm%Davina%coreGivesNoEmail%1,                           Stephenson%Niamh%coreGivesNoEmail%1,                           Waller%Emily%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Hector M.%Gomez%NULL%1,                            Carlos%Mejia Arbelaez%NULL%1,                            Jovana A.%Ocampo Cañas%ja.ocampo@uniandes.edu.co%1]</t>
+  </si>
+  <si>
+    <t>[ Susan%Jones%null%1,                             Betty%Sam%null%1,                             Florence%Bull%null%1,                             Steven Bagie%Pieh%null%1,                             Jaki%Lambert%null%1,                             Florence%Mgawadere%null%1,                             Somasundari%Gopalakrishnan%null%1,                             Charles A.%Ameh%null%1,                             Nynke%van den Broek%null%1,                           Susan%Jones%null%1,                           Betty%Sam%null%1,                           Florence%Bull%null%1,                           Steven Bagie%Pieh%null%1,                           Jaki%Lambert%null%1,                           Florence%Mgawadere%null%1,                           Somasundari%Gopalakrishnan%null%1,                           Charles A.%Ameh%null%1,                           Nynke%van den Broek%null%1]</t>
+  </si>
+  <si>
+    <t>[Caroline S.E.%Homer%NULL%1,                            Miranda%Davies-Tuck%NULL%1,                            Hannah G.%Dahlen%NULL%1,                            Vanessa L.%Scarf%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Molly M.%Lynch%null%1,                  Elizabeth W.%Mitchell%null%1,                  Jennifer L.%Williams%null%1,                  Kelly%Brumbaugh%null%1,                  Michelle%Jones-Bell%null%1,                  Debra E.%Pinkney%null%1,                  Christine M.%Layton%null%1,                  Patricia W.%Mersereau%null%1,                  Juliette S.%Kendrick%null%1,                  Paula Eguino%Medina%null%1,                  Lucia Rojas%Smith%null%1]</t>
+  </si>
+  <si>
+    <t>[Niuniu%Sun%NULL%1,                            Luoqun%Wei%NULL%1,                            Suling%Shi%NULL%1,                            Dandan%Jiao%NULL%1,                            Runluo%Song%NULL%1,                            Lili%Ma%NULL%1,                            Hongwei%Wang%NULL%1,                            Chao%Wang%NULL%1,                            Zhaoguo%Wang%NULL%1,                            Yanli%You%NULL%1,                            Shuhua%Liu%NULL%1,                            Hongyun%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Veronika%Tirado%Veronika.Tirado@ki.se%1,                            Santiago A.%Morales Mesa%NULL%1,                            John%Kinsman%NULL%1,                            Anna Mia%Ekström%NULL%1,                            Berta N.%Restrepo Jaramillo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Simon N%Williams%NULL%1,                            Christopher J%Armitage%NULL%2,                            Christopher J%Armitage%NULL%0,                            Tova%Tampe%NULL%1,                            Kimberly%Dienes%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2014,7 +2098,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2046,7 +2130,7 @@
         <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -2078,7 +2162,7 @@
         <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -2110,7 +2194,7 @@
         <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2142,7 +2226,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -2174,7 +2258,7 @@
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2206,7 +2290,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="F8" t="s">
         <v>47</v>
@@ -2238,7 +2322,7 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2270,7 +2354,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -2302,7 +2386,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -2334,7 +2418,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="F12" t="s">
         <v>59</v>
@@ -2366,7 +2450,7 @@
         <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -2398,7 +2482,7 @@
         <v>226</v>
       </c>
       <c r="E14" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -2430,7 +2514,7 @@
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -2462,7 +2546,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2494,7 +2578,7 @@
         <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="F17" t="s">
         <v>69</v>
@@ -2526,7 +2610,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="F18" t="s">
         <v>72</v>
